--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>906752.6788246781</v>
+        <v>901855.4422367307</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8186089.907737298</v>
+        <v>8186089.907737301</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5742049.093053124</v>
+        <v>5742049.093053125</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>215.1751401124613</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>285.9311321812619</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166568202456233</v>
+        <v>3.16656820245619</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>85.26980621371686</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>368.4488703640677</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.6342735348466</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1463,7 +1463,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>59.00565898536429</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>85.6887943319354</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1433946664671</v>
+        <v>24.31146909192864</v>
       </c>
       <c r="U12" t="n">
         <v>195.3021387078687</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H13" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>86.37808034979749</v>
+        <v>86.37808034979747</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>49.36175952353054</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>142.3486875459326</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>116.0509238563473</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T14" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1672,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>57.50408844701825</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1697,13 +1697,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>18.95509069175687</v>
       </c>
       <c r="G15" t="n">
         <v>104.7777180703237</v>
       </c>
       <c r="H15" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>5.222545353538928</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U15" t="n">
         <v>195.3021387078687</v>
@@ -1767,10 +1767,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>79.47693779839766</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I16" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V16" t="n">
-        <v>49.36175952353054</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>215.1751401124613</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>225.3825261438503</v>
       </c>
       <c r="G17" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H17" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>3.166568202456247</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>85.68879433193541</v>
+        <v>15.86252774276021</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.1433946664671</v>
       </c>
       <c r="U18" t="n">
-        <v>114.8358897294722</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2004,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>97.24439125788838</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.3926636628346</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>18.75279024640297</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>144.2429442444551</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00565898536429</v>
+        <v>36.97042707739744</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>85.68879433193541</v>
       </c>
       <c r="T21" t="n">
         <v>153.1433946664671</v>
@@ -2219,13 +2219,13 @@
         <v>195.3021387078687</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>26.6418727295681</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U22" t="n">
-        <v>213.4139738103307</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>54.40031406919521</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2326,10 +2326,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>374.9207919679266</v>
       </c>
       <c r="F23" t="n">
-        <v>370.8429465074989</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>167.0480443725719</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2484,7 +2484,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2496,7 +2496,7 @@
         <v>139.5954175304433</v>
       </c>
       <c r="I25" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6.692435322180172</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>96.09492425646582</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>75.79305088545115</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>104.7777180703237</v>
       </c>
       <c r="H27" t="n">
-        <v>59.00565898536401</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>42.020784719441</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.35255397088751</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U28" t="n">
-        <v>217.597468305697</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>333.9455364378319</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>258.062111151241</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2961,13 +2961,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>126.1391045943604</v>
+        <v>65.27936439923231</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3034,16 +3034,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>270.5599802123497</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.6466764958367</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>126.2653169386807</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.0607131231338</v>
       </c>
       <c r="U34" t="n">
-        <v>205.4290934768073</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.300202689834792</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>254.319061736559</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>60.67065664947405</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>37.94547920291113</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -3359,10 +3359,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>15.86252774275988</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>85.68879433193541</v>
       </c>
       <c r="T36" t="n">
         <v>153.1433946664671</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>144.3891642492831</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.35255397088751</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>167.8355178356165</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>231.4011653048181</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>67.45487583743848</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.166568202456247</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.0765006831694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,10 +3596,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>15.86252774275999</v>
+        <v>85.68879433193541</v>
       </c>
       <c r="T39" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3021387078687</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>119.5004351028131</v>
       </c>
     </row>
     <row r="40">
@@ -3666,10 +3666,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.35255397088751</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>160.0373955987149</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>124.4208149013355</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.166568202456247</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T41" t="n">
-        <v>210.6370840092685</v>
+        <v>6.199841116820519</v>
       </c>
       <c r="U41" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>121.0787035850967</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>62.82885394936838</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3833,10 +3833,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.68879433193541</v>
+        <v>47.38128939494062</v>
       </c>
       <c r="T42" t="n">
         <v>153.1433946664671</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3021387078687</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>30.90362489692945</v>
       </c>
       <c r="G43" t="n">
-        <v>50.42915917981615</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>60.17475775736187</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5056876845219</v>
+        <v>11.89951837679528</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>64.72714977671583</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>15.86252774275864</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.1433946664671</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,10 +4152,10 @@
         <v>164.6200590018132</v>
       </c>
       <c r="H46" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.3780803497975</v>
+        <v>50.91040164406639</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>41.35255397088751</v>
       </c>
       <c r="S46" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>157.3750929277078</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9179208068699</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1787.049525288418</v>
+        <v>732.2227995881807</v>
       </c>
       <c r="C11" t="n">
-        <v>1787.049525288418</v>
+        <v>732.2227995881807</v>
       </c>
       <c r="D11" t="n">
-        <v>1569.700898912194</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="E11" t="n">
-        <v>1155.360683429091</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="F11" t="n">
-        <v>734.3302713827786</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="G11" t="n">
-        <v>327.7588696812413</v>
+        <v>327.7588696812412</v>
       </c>
       <c r="H11" t="n">
-        <v>38.93954424562314</v>
+        <v>38.93954424562313</v>
       </c>
       <c r="I11" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J11" t="n">
-        <v>142.5703854689898</v>
+        <v>142.5703854689899</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2290557446588</v>
+        <v>323.2290557446589</v>
       </c>
       <c r="L11" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M11" t="n">
-        <v>841.1329596152966</v>
+        <v>841.1329596152973</v>
       </c>
       <c r="N11" t="n">
         <v>1126.349039004049</v>
       </c>
       <c r="O11" t="n">
-        <v>1390.269714189817</v>
+        <v>1390.269714189818</v>
       </c>
       <c r="P11" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092374</v>
       </c>
       <c r="Q11" t="n">
-        <v>1740.697478824116</v>
+        <v>1740.697478824118</v>
       </c>
       <c r="R11" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S11" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900826</v>
       </c>
       <c r="T11" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="U11" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="V11" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578333</v>
       </c>
       <c r="W11" t="n">
-        <v>1787.049525288418</v>
+        <v>1104.393375713502</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.049525288418</v>
+        <v>732.2227995881807</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.049525288418</v>
+        <v>732.2227995881807</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>547.5285987132485</v>
+        <v>575.6875911053899</v>
       </c>
       <c r="C12" t="n">
-        <v>547.5285987132485</v>
+        <v>441.6925198543356</v>
       </c>
       <c r="D12" t="n">
-        <v>430.6314409326409</v>
+        <v>324.795362073728</v>
       </c>
       <c r="E12" t="n">
-        <v>310.1386249249688</v>
+        <v>204.302546066056</v>
       </c>
       <c r="F12" t="n">
-        <v>201.1787451074734</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="G12" t="n">
-        <v>95.34266624856058</v>
+        <v>95.3426662485606</v>
       </c>
       <c r="H12" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="I12" t="n">
-        <v>54.34778796170225</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J12" t="n">
-        <v>110.3534157295929</v>
+        <v>170.2194754076013</v>
       </c>
       <c r="K12" t="n">
-        <v>237.7286580436575</v>
+        <v>297.594717721666</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7610195839797</v>
+        <v>487.6270792619883</v>
       </c>
       <c r="M12" t="n">
-        <v>657.3593538638702</v>
+        <v>717.225413541879</v>
       </c>
       <c r="N12" t="n">
-        <v>898.869974051861</v>
+        <v>958.7360337298701</v>
       </c>
       <c r="O12" t="n">
-        <v>1110.805991538928</v>
+        <v>1170.672051216937</v>
       </c>
       <c r="P12" t="n">
-        <v>1273.073438353126</v>
+        <v>1332.939498031135</v>
       </c>
       <c r="Q12" t="n">
-        <v>1687.264539063036</v>
+        <v>1775.234255540019</v>
       </c>
       <c r="R12" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S12" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579394</v>
       </c>
       <c r="T12" t="n">
-        <v>1632.359227645522</v>
+        <v>1675.938148092597</v>
       </c>
       <c r="U12" t="n">
-        <v>1435.084340061816</v>
+        <v>1478.663260508891</v>
       </c>
       <c r="V12" t="n">
-        <v>1221.37281305485</v>
+        <v>1264.951733501925</v>
       </c>
       <c r="W12" t="n">
-        <v>1008.139644791179</v>
+        <v>1051.718565238254</v>
       </c>
       <c r="X12" t="n">
-        <v>831.8136629300716</v>
+        <v>875.3925833771465</v>
       </c>
       <c r="Y12" t="n">
-        <v>672.4117032939016</v>
+        <v>715.9906237409765</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1086.40989498774</v>
+        <v>619.8624817136779</v>
       </c>
       <c r="C13" t="n">
-        <v>915.3165225494567</v>
+        <v>448.7691092753944</v>
       </c>
       <c r="D13" t="n">
-        <v>755.8218778723667</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="E13" t="n">
-        <v>594.9110627406862</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="F13" t="n">
-        <v>430.2799368512775</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G13" t="n">
-        <v>263.9970489706581</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H13" t="n">
         <v>122.991576717685</v>
       </c>
       <c r="I13" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576839</v>
       </c>
       <c r="J13" t="n">
-        <v>116.86480644676</v>
+        <v>51.8634428154237</v>
       </c>
       <c r="K13" t="n">
-        <v>381.5865293505954</v>
+        <v>292.4895886706043</v>
       </c>
       <c r="L13" t="n">
-        <v>782.4625254678895</v>
+        <v>379.3864735528754</v>
       </c>
       <c r="M13" t="n">
-        <v>1220.369060868968</v>
+        <v>817.2930089539543</v>
       </c>
       <c r="N13" t="n">
-        <v>1314.281634858812</v>
+        <v>1243.239884391384</v>
       </c>
       <c r="O13" t="n">
-        <v>1392.798296117366</v>
+        <v>1321.756545649937</v>
       </c>
       <c r="P13" t="n">
-        <v>1713.16024916009</v>
+        <v>1642.118498692662</v>
       </c>
       <c r="Q13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="R13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="S13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="T13" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288419</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.049525288418</v>
+        <v>1504.304150736026</v>
       </c>
       <c r="V13" t="n">
-        <v>1787.049525288418</v>
+        <v>1230.418405675548</v>
       </c>
       <c r="W13" t="n">
-        <v>1737.189162133337</v>
+        <v>951.3487411844219</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.84529999302</v>
+        <v>951.3487411844219</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.109601381785</v>
+        <v>807.5621881077222</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.93954424562315</v>
+        <v>156.162699656075</v>
       </c>
       <c r="C14" t="n">
         <v>38.93954424562315</v>
@@ -5278,16 +5278,16 @@
         <v>35.74099050576836</v>
       </c>
       <c r="J14" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2290557446586</v>
+        <v>323.2290557446587</v>
       </c>
       <c r="L14" t="n">
-        <v>562.297324706478</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M14" t="n">
-        <v>841.1329596152966</v>
+        <v>841.1329596152968</v>
       </c>
       <c r="N14" t="n">
         <v>1126.349039004049</v>
@@ -5308,22 +5308,22 @@
         <v>1700.918407900825</v>
       </c>
       <c r="T14" t="n">
-        <v>1488.153676578332</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="U14" t="n">
-        <v>1231.265735430292</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="V14" t="n">
-        <v>881.428180766773</v>
+        <v>1351.080853237306</v>
       </c>
       <c r="W14" t="n">
-        <v>497.6678799019416</v>
+        <v>967.3205523724744</v>
       </c>
       <c r="X14" t="n">
-        <v>97.02448207089412</v>
+        <v>967.3205523724744</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.93954424562315</v>
+        <v>566.3838793205645</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.5236699643028</v>
+        <v>532.108670658315</v>
       </c>
       <c r="C15" t="n">
-        <v>547.5285987132485</v>
+        <v>398.1135994072607</v>
       </c>
       <c r="D15" t="n">
-        <v>430.6314409326409</v>
+        <v>281.2164416266531</v>
       </c>
       <c r="E15" t="n">
-        <v>310.1386249249688</v>
+        <v>160.7236256189811</v>
       </c>
       <c r="F15" t="n">
-        <v>201.1787451074734</v>
+        <v>141.5770693646812</v>
       </c>
       <c r="G15" t="n">
-        <v>95.34266624856058</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="H15" t="n">
         <v>35.74099050576836</v>
       </c>
       <c r="I15" t="n">
-        <v>54.34778796170225</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="J15" t="n">
-        <v>110.3534157295928</v>
+        <v>335.4150222482922</v>
       </c>
       <c r="K15" t="n">
-        <v>237.7286580436574</v>
+        <v>462.7902645623569</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7610195839796</v>
+        <v>652.822626102679</v>
       </c>
       <c r="M15" t="n">
-        <v>657.3593538638701</v>
+        <v>882.4209603825694</v>
       </c>
       <c r="N15" t="n">
-        <v>898.8699740518609</v>
+        <v>1123.93158057056</v>
       </c>
       <c r="O15" t="n">
-        <v>1156.71556517279</v>
+        <v>1335.867598057627</v>
       </c>
       <c r="P15" t="n">
-        <v>1599.010322681674</v>
+        <v>1498.135044871825</v>
       </c>
       <c r="Q15" t="n">
         <v>1687.264539063036</v>
@@ -5387,22 +5387,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T15" t="n">
-        <v>1781.77422695151</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U15" t="n">
-        <v>1584.499339367804</v>
+        <v>1435.084340061816</v>
       </c>
       <c r="V15" t="n">
-        <v>1370.787812360838</v>
+        <v>1221.37281305485</v>
       </c>
       <c r="W15" t="n">
-        <v>1157.554644097167</v>
+        <v>1008.139644791179</v>
       </c>
       <c r="X15" t="n">
-        <v>981.2286622360594</v>
+        <v>831.8136629300716</v>
       </c>
       <c r="Y15" t="n">
-        <v>821.8267025998895</v>
+        <v>672.4117032939016</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.40989498774</v>
+        <v>582.5681389297273</v>
       </c>
       <c r="C16" t="n">
-        <v>915.3165225494567</v>
+        <v>502.2884037798307</v>
       </c>
       <c r="D16" t="n">
-        <v>755.8218778723667</v>
+        <v>502.2884037798307</v>
       </c>
       <c r="E16" t="n">
-        <v>594.9110627406862</v>
+        <v>341.3775886481502</v>
       </c>
       <c r="F16" t="n">
-        <v>430.2799368512775</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="G16" t="n">
-        <v>263.9970489706581</v>
+        <v>176.7464627587414</v>
       </c>
       <c r="H16" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="I16" t="n">
         <v>35.74099050576836</v>
@@ -5442,7 +5442,7 @@
         <v>110.3049721335448</v>
       </c>
       <c r="L16" t="n">
-        <v>451.4831578130889</v>
+        <v>511.1809682508389</v>
       </c>
       <c r="M16" t="n">
         <v>889.3896932141677</v>
@@ -5466,22 +5466,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T16" t="n">
-        <v>1787.049525288418</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U16" t="n">
-        <v>1787.049525288418</v>
+        <v>1268.889288995485</v>
       </c>
       <c r="V16" t="n">
-        <v>1737.189162133337</v>
+        <v>995.003543935007</v>
       </c>
       <c r="W16" t="n">
-        <v>1737.189162133337</v>
+        <v>995.003543935007</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.84529999302</v>
+        <v>995.003543935007</v>
       </c>
       <c r="Y16" t="n">
-        <v>1274.109601381785</v>
+        <v>770.2678453237717</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1787.049525288418</v>
+        <v>1087.510278747284</v>
       </c>
       <c r="C17" t="n">
-        <v>1787.049525288418</v>
+        <v>1087.510278747284</v>
       </c>
       <c r="D17" t="n">
-        <v>1569.700898912194</v>
+        <v>1087.510278747284</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.360683429091</v>
+        <v>673.170063264181</v>
       </c>
       <c r="F17" t="n">
-        <v>734.3302713827786</v>
+        <v>445.5109459471605</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7588696812413</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H17" t="n">
         <v>38.93954424562315</v>
@@ -5515,16 +5515,16 @@
         <v>35.74099050576836</v>
       </c>
       <c r="J17" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689897</v>
       </c>
       <c r="K17" t="n">
         <v>323.2290557446586</v>
       </c>
       <c r="L17" t="n">
-        <v>562.297324706478</v>
+        <v>562.2973247064781</v>
       </c>
       <c r="M17" t="n">
-        <v>841.1329596152966</v>
+        <v>841.1329596152968</v>
       </c>
       <c r="N17" t="n">
         <v>1126.349039004049</v>
@@ -5542,25 +5542,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S17" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="T17" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="U17" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="V17" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="W17" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="X17" t="n">
-        <v>1787.049525288418</v>
+        <v>1087.510278747284</v>
       </c>
       <c r="Y17" t="n">
-        <v>1787.049525288418</v>
+        <v>1087.510278747284</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.5236699643028</v>
+        <v>516.0859153625977</v>
       </c>
       <c r="C18" t="n">
-        <v>547.5285987132485</v>
+        <v>382.0908441115434</v>
       </c>
       <c r="D18" t="n">
-        <v>430.6314409326409</v>
+        <v>265.1936863309358</v>
       </c>
       <c r="E18" t="n">
-        <v>310.1386249249688</v>
+        <v>144.7008703232638</v>
       </c>
       <c r="F18" t="n">
-        <v>201.1787451074734</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="G18" t="n">
-        <v>95.34266624856058</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="H18" t="n">
         <v>35.74099050576836</v>
@@ -5597,49 +5597,49 @@
         <v>354.0218197042261</v>
       </c>
       <c r="K18" t="n">
-        <v>481.3970620182907</v>
+        <v>651.6352588491868</v>
       </c>
       <c r="L18" t="n">
-        <v>671.4294235586128</v>
+        <v>841.667620389509</v>
       </c>
       <c r="M18" t="n">
-        <v>901.0277578385032</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.806858380409</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O18" t="n">
-        <v>1436.742875867476</v>
+        <v>1524.712592344457</v>
       </c>
       <c r="P18" t="n">
-        <v>1599.010322681674</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q18" t="n">
-        <v>1687.264539063036</v>
+        <v>1775.234255540018</v>
       </c>
       <c r="R18" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S18" t="n">
-        <v>1700.495187579392</v>
+        <v>1771.026769992701</v>
       </c>
       <c r="T18" t="n">
-        <v>1700.495187579392</v>
+        <v>1616.336472349805</v>
       </c>
       <c r="U18" t="n">
-        <v>1584.499339367804</v>
+        <v>1419.061584766099</v>
       </c>
       <c r="V18" t="n">
-        <v>1370.787812360838</v>
+        <v>1205.350057759133</v>
       </c>
       <c r="W18" t="n">
-        <v>1157.554644097167</v>
+        <v>992.1168894954615</v>
       </c>
       <c r="X18" t="n">
-        <v>981.2286622360594</v>
+        <v>815.7909076343543</v>
       </c>
       <c r="Y18" t="n">
-        <v>821.8267025998895</v>
+        <v>656.3889479981843</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>999.1593087758235</v>
+        <v>133.9676483420193</v>
       </c>
       <c r="C19" t="n">
-        <v>828.0659363375401</v>
+        <v>133.9676483420193</v>
       </c>
       <c r="D19" t="n">
-        <v>668.57129166045</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="E19" t="n">
-        <v>507.6604765287695</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0293506393608</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="G19" t="n">
-        <v>176.7464627587414</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="H19" t="n">
         <v>35.74099050576836</v>
@@ -5676,19 +5676,19 @@
         <v>51.86344281542362</v>
       </c>
       <c r="K19" t="n">
-        <v>316.585165719259</v>
+        <v>110.3049721335448</v>
       </c>
       <c r="L19" t="n">
-        <v>403.48205060153</v>
+        <v>451.4831578130889</v>
       </c>
       <c r="M19" t="n">
-        <v>841.3885860026087</v>
+        <v>889.3896932141677</v>
       </c>
       <c r="N19" t="n">
-        <v>1267.335461440038</v>
+        <v>1315.336568651597</v>
       </c>
       <c r="O19" t="n">
-        <v>1448.030505855773</v>
+        <v>1708.927989328891</v>
       </c>
       <c r="P19" t="n">
         <v>1768.392458898498</v>
@@ -5703,22 +5703,22 @@
         <v>1617.518699191836</v>
       </c>
       <c r="T19" t="n">
-        <v>1617.518699191836</v>
+        <v>1382.103837451296</v>
       </c>
       <c r="U19" t="n">
-        <v>1617.518699191836</v>
+        <v>1099.358462898903</v>
       </c>
       <c r="V19" t="n">
-        <v>1617.518699191836</v>
+        <v>825.4727178384246</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.518699191836</v>
+        <v>546.403053347299</v>
       </c>
       <c r="X19" t="n">
-        <v>1379.174837051519</v>
+        <v>546.403053347299</v>
       </c>
       <c r="Y19" t="n">
-        <v>1186.859015169868</v>
+        <v>321.6673547360637</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.1116180351842</v>
+        <v>856.652607690409</v>
       </c>
       <c r="C20" t="n">
-        <v>871.1116180351842</v>
+        <v>856.652607690409</v>
       </c>
       <c r="D20" t="n">
-        <v>871.1116180351842</v>
+        <v>856.652607690409</v>
       </c>
       <c r="E20" t="n">
-        <v>456.7714025520808</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="F20" t="n">
-        <v>35.74099050576836</v>
+        <v>442.3123922073057</v>
       </c>
       <c r="G20" t="n">
         <v>35.74099050576836</v>
@@ -5752,16 +5752,16 @@
         <v>35.74099050576836</v>
       </c>
       <c r="J20" t="n">
-        <v>142.5703854689896</v>
+        <v>142.57038546899</v>
       </c>
       <c r="K20" t="n">
         <v>323.229055744659</v>
       </c>
       <c r="L20" t="n">
-        <v>562.2973247064783</v>
+        <v>562.2973247064785</v>
       </c>
       <c r="M20" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152971</v>
       </c>
       <c r="N20" t="n">
         <v>1126.349039004049</v>
@@ -5779,25 +5779,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S20" t="n">
-        <v>1700.918407900825</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="T20" t="n">
-        <v>1681.976195530721</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="U20" t="n">
-        <v>1681.976195530721</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="V20" t="n">
-        <v>1681.976195530721</v>
+        <v>1641.34958160715</v>
       </c>
       <c r="W20" t="n">
-        <v>1681.976195530721</v>
+        <v>1257.589280742319</v>
       </c>
       <c r="X20" t="n">
-        <v>1281.332797699674</v>
+        <v>1257.589280742319</v>
       </c>
       <c r="Y20" t="n">
-        <v>1281.332797699674</v>
+        <v>856.652607690409</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>681.5236699643028</v>
+        <v>659.2658599562554</v>
       </c>
       <c r="C21" t="n">
-        <v>547.5285987132485</v>
+        <v>525.2707887052011</v>
       </c>
       <c r="D21" t="n">
-        <v>430.6314409326409</v>
+        <v>408.3736309245935</v>
       </c>
       <c r="E21" t="n">
-        <v>310.1386249249688</v>
+        <v>287.8808149169215</v>
       </c>
       <c r="F21" t="n">
-        <v>201.1787451074734</v>
+        <v>178.9209350994261</v>
       </c>
       <c r="G21" t="n">
-        <v>95.34266624856058</v>
+        <v>73.08485624051325</v>
       </c>
       <c r="H21" t="n">
         <v>35.74099050576836</v>
@@ -5846,10 +5846,10 @@
         <v>1142.538378026494</v>
       </c>
       <c r="O21" t="n">
-        <v>1436.742875867476</v>
+        <v>1354.474395513561</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.010322681674</v>
+        <v>1516.741842327759</v>
       </c>
       <c r="Q21" t="n">
         <v>1687.264539063036</v>
@@ -5858,25 +5858,25 @@
         <v>1787.049525288418</v>
       </c>
       <c r="S21" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T21" t="n">
-        <v>1632.359227645522</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="U21" t="n">
-        <v>1435.084340061816</v>
+        <v>1348.53000235279</v>
       </c>
       <c r="V21" t="n">
-        <v>1221.37281305485</v>
+        <v>1348.53000235279</v>
       </c>
       <c r="W21" t="n">
-        <v>1008.139644791179</v>
+        <v>1135.296834089119</v>
       </c>
       <c r="X21" t="n">
-        <v>981.2286622360594</v>
+        <v>958.9708522280121</v>
       </c>
       <c r="Y21" t="n">
-        <v>821.8267025998895</v>
+        <v>799.5688925918421</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>367.7451780757324</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="C22" t="n">
-        <v>196.6518056374489</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="D22" t="n">
-        <v>196.6518056374489</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="E22" t="n">
-        <v>35.74099050576836</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="F22" t="n">
-        <v>35.74099050576836</v>
+        <v>289.2744645983045</v>
       </c>
       <c r="G22" t="n">
-        <v>35.74099050576836</v>
+        <v>122.991576717685</v>
       </c>
       <c r="H22" t="n">
-        <v>35.74099050576836</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I22" t="n">
         <v>35.74099050576836</v>
@@ -5913,7 +5913,7 @@
         <v>51.86344281542362</v>
       </c>
       <c r="K22" t="n">
-        <v>316.585165719259</v>
+        <v>110.3049721335448</v>
       </c>
       <c r="L22" t="n">
         <v>451.4831578130889</v>
@@ -5940,22 +5940,22 @@
         <v>1787.049525288418</v>
       </c>
       <c r="T22" t="n">
-        <v>1787.049525288418</v>
+        <v>1551.634663547879</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.479854772932</v>
+        <v>1268.889288995485</v>
       </c>
       <c r="V22" t="n">
-        <v>1297.594109712454</v>
+        <v>995.003543935007</v>
       </c>
       <c r="W22" t="n">
-        <v>1018.524445221329</v>
+        <v>940.0537317439007</v>
       </c>
       <c r="X22" t="n">
-        <v>780.1805830810121</v>
+        <v>701.7098696035841</v>
       </c>
       <c r="Y22" t="n">
-        <v>555.4448844697768</v>
+        <v>476.9741709923488</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1644.074262194009</v>
+        <v>1233.853082529519</v>
       </c>
       <c r="C23" t="n">
-        <v>1233.949671507279</v>
+        <v>823.7284918427896</v>
       </c>
       <c r="D23" t="n">
-        <v>829.4857416003397</v>
+        <v>419.2645619358501</v>
       </c>
       <c r="E23" t="n">
-        <v>415.1455261172364</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="F23" t="n">
         <v>40.55669126117681</v>
@@ -5989,25 +5989,25 @@
         <v>40.55669126117681</v>
       </c>
       <c r="J23" t="n">
-        <v>147.3860862243981</v>
+        <v>383.3554232394123</v>
       </c>
       <c r="K23" t="n">
-        <v>328.044756500067</v>
+        <v>564.0140935150812</v>
       </c>
       <c r="L23" t="n">
-        <v>567.1130254618865</v>
+        <v>803.0823624769007</v>
       </c>
       <c r="M23" t="n">
-        <v>845.9486603707053</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N23" t="n">
-        <v>1131.164739759457</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O23" t="n">
-        <v>1395.085414945226</v>
+        <v>1631.05475196024</v>
       </c>
       <c r="P23" t="n">
-        <v>1606.362699847781</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q23" t="n">
         <v>1981.482516594539</v>
@@ -6047,16 +6047,16 @@
         <v>686.3393707197114</v>
       </c>
       <c r="C24" t="n">
-        <v>552.344299468657</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D24" t="n">
-        <v>435.4471416880494</v>
+        <v>435.4471416880497</v>
       </c>
       <c r="E24" t="n">
-        <v>314.9543256803775</v>
+        <v>314.9543256803777</v>
       </c>
       <c r="F24" t="n">
-        <v>205.994445862882</v>
+        <v>205.9944458628822</v>
       </c>
       <c r="G24" t="n">
         <v>100.1583670039693</v>
@@ -6065,31 +6065,31 @@
         <v>40.55669126117681</v>
       </c>
       <c r="I24" t="n">
-        <v>40.55669126117681</v>
+        <v>59.1634887171107</v>
       </c>
       <c r="J24" t="n">
-        <v>96.5623190290674</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K24" t="n">
-        <v>223.937561343132</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L24" t="n">
-        <v>725.826615700195</v>
+        <v>676.2451243140213</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.08127596284</v>
+        <v>905.8434585939117</v>
       </c>
       <c r="N24" t="n">
-        <v>1465.591896150831</v>
+        <v>1147.354078781902</v>
       </c>
       <c r="O24" t="n">
-        <v>1677.527913637898</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P24" t="n">
-        <v>1839.795360452096</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q24" t="n">
-        <v>1928.049576833459</v>
+        <v>2015.781916468304</v>
       </c>
       <c r="R24" t="n">
         <v>2027.83456305884</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.225595743149</v>
+        <v>843.0641943995515</v>
       </c>
       <c r="C25" t="n">
-        <v>920.1322233048652</v>
+        <v>671.970821961268</v>
       </c>
       <c r="D25" t="n">
-        <v>760.6375786277752</v>
+        <v>512.476177284178</v>
       </c>
       <c r="E25" t="n">
-        <v>599.7267634960947</v>
+        <v>512.476177284178</v>
       </c>
       <c r="F25" t="n">
-        <v>435.095637606686</v>
+        <v>347.8450513947693</v>
       </c>
       <c r="G25" t="n">
-        <v>268.8127497260665</v>
+        <v>181.5621635141499</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8072774730935</v>
+        <v>40.55669126117681</v>
       </c>
       <c r="I25" t="n">
         <v>40.55669126117681</v>
@@ -6153,19 +6153,19 @@
         <v>115.1206728889533</v>
       </c>
       <c r="L25" t="n">
-        <v>515.9966690062473</v>
+        <v>431.3707121103935</v>
       </c>
       <c r="M25" t="n">
-        <v>953.903204407326</v>
+        <v>869.2772475114723</v>
       </c>
       <c r="N25" t="n">
-        <v>1379.850079844756</v>
+        <v>1295.224122948902</v>
       </c>
       <c r="O25" t="n">
-        <v>1773.441500522049</v>
+        <v>1688.815543626196</v>
       </c>
       <c r="P25" t="n">
-        <v>1882.903536463083</v>
+        <v>2009.17749666892</v>
       </c>
       <c r="Q25" t="n">
         <v>2027.83456305884</v>
@@ -6183,16 +6183,16 @@
         <v>2027.83456305884</v>
       </c>
       <c r="V25" t="n">
-        <v>2021.07452737987</v>
+        <v>1753.948817998362</v>
       </c>
       <c r="W25" t="n">
-        <v>1742.004862888745</v>
+        <v>1474.879153507237</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.661000748428</v>
+        <v>1236.53529136692</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.925302137193</v>
+        <v>1011.799592755685</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1146.072009085062</v>
+        <v>1140.411348305272</v>
       </c>
       <c r="C26" t="n">
-        <v>735.9474183983323</v>
+        <v>1140.411348305272</v>
       </c>
       <c r="D26" t="n">
         <v>735.9474183983323</v>
@@ -6226,25 +6226,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J26" t="n">
-        <v>256.3597561632706</v>
+        <v>147.3860862243981</v>
       </c>
       <c r="K26" t="n">
-        <v>437.0184264389395</v>
+        <v>328.044756500067</v>
       </c>
       <c r="L26" t="n">
-        <v>676.086695400759</v>
+        <v>567.1130254618865</v>
       </c>
       <c r="M26" t="n">
-        <v>954.9223303095778</v>
+        <v>845.9486603707053</v>
       </c>
       <c r="N26" t="n">
-        <v>1240.13840969833</v>
+        <v>1131.164739759457</v>
       </c>
       <c r="O26" t="n">
-        <v>1504.059084884098</v>
+        <v>1395.085414945226</v>
       </c>
       <c r="P26" t="n">
-        <v>1715.336369786653</v>
+        <v>1606.362699847781</v>
       </c>
       <c r="Q26" t="n">
         <v>1854.486849518397</v>
@@ -6256,22 +6256,22 @@
         <v>2027.83456305884</v>
       </c>
       <c r="T26" t="n">
-        <v>1930.768983001804</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="U26" t="n">
-        <v>1930.768983001804</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="V26" t="n">
-        <v>1930.768983001804</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="W26" t="n">
-        <v>1547.008682136972</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="X26" t="n">
-        <v>1547.008682136972</v>
+        <v>1627.191165227793</v>
       </c>
       <c r="Y26" t="n">
-        <v>1146.072009085062</v>
+        <v>1550.632527969761</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>686.3393707197109</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C27" t="n">
-        <v>552.3442994686566</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D27" t="n">
-        <v>435.447141688049</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E27" t="n">
-        <v>314.954325680377</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F27" t="n">
-        <v>205.9944458628816</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G27" t="n">
-        <v>100.1583670039687</v>
+        <v>100.158367003969</v>
       </c>
       <c r="H27" t="n">
         <v>40.5566912611768</v>
@@ -6305,28 +6305,28 @@
         <v>59.16348871711069</v>
       </c>
       <c r="J27" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4804231388536</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L27" t="n">
-        <v>588.5127846791758</v>
+        <v>676.2451243140213</v>
       </c>
       <c r="M27" t="n">
-        <v>818.1111189590662</v>
+        <v>905.8434585939117</v>
       </c>
       <c r="N27" t="n">
-        <v>1059.621739147057</v>
+        <v>1147.354078781902</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.557756634124</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P27" t="n">
-        <v>1433.825203448322</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q27" t="n">
-        <v>1928.049576833458</v>
+        <v>2015.781916468304</v>
       </c>
       <c r="R27" t="n">
         <v>2027.83456305884</v>
@@ -6338,7 +6338,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U27" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V27" t="n">
         <v>1375.603513116246</v>
@@ -6347,10 +6347,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X27" t="n">
-        <v>986.0443629914676</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y27" t="n">
-        <v>826.6424033552976</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>606.1890100449695</v>
+        <v>585.0093145598329</v>
       </c>
       <c r="C28" t="n">
-        <v>435.095637606686</v>
+        <v>413.9159421215494</v>
       </c>
       <c r="D28" t="n">
-        <v>435.095637606686</v>
+        <v>413.9159421215494</v>
       </c>
       <c r="E28" t="n">
-        <v>435.095637606686</v>
+        <v>371.4707050312049</v>
       </c>
       <c r="F28" t="n">
-        <v>435.095637606686</v>
+        <v>206.8395791417962</v>
       </c>
       <c r="G28" t="n">
-        <v>268.8127497260665</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="H28" t="n">
-        <v>127.8072774730935</v>
+        <v>40.5566912611768</v>
       </c>
       <c r="I28" t="n">
         <v>40.5566912611768</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67914357083207</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K28" t="n">
-        <v>115.1206728889533</v>
+        <v>180.1220365202897</v>
       </c>
       <c r="L28" t="n">
-        <v>515.9966690062473</v>
+        <v>580.9980326375837</v>
       </c>
       <c r="M28" t="n">
-        <v>953.903204407326</v>
+        <v>1018.904568038663</v>
       </c>
       <c r="N28" t="n">
-        <v>1379.850079844756</v>
+        <v>1444.851443476092</v>
       </c>
       <c r="O28" t="n">
-        <v>1773.441500522049</v>
+        <v>1838.442864153386</v>
       </c>
       <c r="P28" t="n">
-        <v>1882.903536463082</v>
+        <v>1897.907333722992</v>
       </c>
       <c r="Q28" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="R28" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="S28" t="n">
-        <v>1986.06430652259</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T28" t="n">
-        <v>1750.649444782051</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U28" t="n">
-        <v>1530.854022251044</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V28" t="n">
-        <v>1256.968277190566</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W28" t="n">
-        <v>1256.968277190566</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="X28" t="n">
-        <v>1018.624415050249</v>
+        <v>997.4447195651126</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.8887164390138</v>
+        <v>772.7090209538773</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1690.515839384262</v>
+        <v>1280.391248697532</v>
       </c>
       <c r="C29" t="n">
         <v>1280.391248697532</v>
@@ -6463,52 +6463,52 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J29" t="n">
-        <v>147.3860862243981</v>
+        <v>383.3554232394118</v>
       </c>
       <c r="K29" t="n">
-        <v>328.044756500067</v>
+        <v>564.0140935150807</v>
       </c>
       <c r="L29" t="n">
-        <v>567.1130254618865</v>
+        <v>803.0823624769002</v>
       </c>
       <c r="M29" t="n">
-        <v>845.9486603707053</v>
+        <v>1081.917997385719</v>
       </c>
       <c r="N29" t="n">
-        <v>1131.164739759457</v>
+        <v>1367.134076774471</v>
       </c>
       <c r="O29" t="n">
-        <v>1395.085414945226</v>
+        <v>1631.05475196024</v>
       </c>
       <c r="P29" t="n">
-        <v>1606.362699847781</v>
+        <v>1842.332036862795</v>
       </c>
       <c r="Q29" t="n">
-        <v>1981.482516594538</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R29" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X29" t="n">
-        <v>2027.83456305884</v>
+        <v>1541.0600478402</v>
       </c>
       <c r="Y29" t="n">
-        <v>2027.83456305884</v>
+        <v>1280.391248697532</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C30" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D30" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E30" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F30" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G30" t="n">
         <v>100.158367003969</v>
@@ -6542,28 +6542,28 @@
         <v>59.16348871711069</v>
       </c>
       <c r="J30" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K30" t="n">
-        <v>242.5443587990659</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L30" t="n">
-        <v>744.4334131561288</v>
+        <v>676.2451243140213</v>
       </c>
       <c r="M30" t="n">
-        <v>974.0317474360193</v>
+        <v>905.8434585939117</v>
       </c>
       <c r="N30" t="n">
-        <v>1215.54236762401</v>
+        <v>1147.354078781902</v>
       </c>
       <c r="O30" t="n">
-        <v>1427.478385111077</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P30" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q30" t="n">
-        <v>2016.01929331044</v>
+        <v>2015.781916468304</v>
       </c>
       <c r="R30" t="n">
         <v>2027.83456305884</v>
@@ -6575,7 +6575,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U30" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V30" t="n">
         <v>1375.603513116246</v>
@@ -6584,10 +6584,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X30" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y30" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.09988636164</v>
+        <v>597.9942754266473</v>
       </c>
       <c r="C31" t="n">
-        <v>653.0065139233565</v>
+        <v>426.9009029883638</v>
       </c>
       <c r="D31" t="n">
-        <v>493.5118692462665</v>
+        <v>267.4062583112738</v>
       </c>
       <c r="E31" t="n">
-        <v>332.601054114586</v>
+        <v>106.4954431795933</v>
       </c>
       <c r="F31" t="n">
-        <v>167.9699282251772</v>
+        <v>106.4954431795933</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9699282251772</v>
+        <v>106.4954431795933</v>
       </c>
       <c r="H31" t="n">
         <v>40.5566912611768</v>
@@ -6621,25 +6621,25 @@
         <v>40.5566912611768</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67914357083207</v>
+        <v>121.6805072021685</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1206728889533</v>
+        <v>386.4022301060038</v>
       </c>
       <c r="L31" t="n">
-        <v>515.9966690062473</v>
+        <v>787.2782262232979</v>
       </c>
       <c r="M31" t="n">
-        <v>953.903204407326</v>
+        <v>1225.184761624377</v>
       </c>
       <c r="N31" t="n">
-        <v>1379.850079844756</v>
+        <v>1651.131637061806</v>
       </c>
       <c r="O31" t="n">
-        <v>1773.441500522049</v>
+        <v>1729.64829832036</v>
       </c>
       <c r="P31" t="n">
-        <v>2009.17749666892</v>
+        <v>1882.903536463082</v>
       </c>
       <c r="Q31" t="n">
         <v>2027.83456305884</v>
@@ -6648,25 +6648,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S31" t="n">
-        <v>2027.83456305884</v>
+        <v>1858.303736962258</v>
       </c>
       <c r="T31" t="n">
-        <v>2027.83456305884</v>
+        <v>1622.888875221719</v>
       </c>
       <c r="U31" t="n">
-        <v>2027.83456305884</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="V31" t="n">
-        <v>1753.948817998362</v>
+        <v>1340.143500669325</v>
       </c>
       <c r="W31" t="n">
-        <v>1474.879153507236</v>
+        <v>1061.073836178199</v>
       </c>
       <c r="X31" t="n">
-        <v>1236.53529136692</v>
+        <v>822.7299740378826</v>
       </c>
       <c r="Y31" t="n">
-        <v>1011.799592755684</v>
+        <v>597.9942754266473</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.48542733795</v>
+        <v>1130.545592954848</v>
       </c>
       <c r="C32" t="n">
-        <v>859.3608366512196</v>
+        <v>720.4210022681178</v>
       </c>
       <c r="D32" t="n">
-        <v>454.8969067442801</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="E32" t="n">
-        <v>40.5566912611768</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="F32" t="n">
-        <v>40.5566912611768</v>
+        <v>447.1280929627141</v>
       </c>
       <c r="G32" t="n">
         <v>40.5566912611768</v>
@@ -6715,37 +6715,37 @@
         <v>1131.164739759457</v>
       </c>
       <c r="O32" t="n">
-        <v>1395.085414945226</v>
+        <v>1631.05475196024</v>
       </c>
       <c r="P32" t="n">
         <v>1842.332036862795</v>
       </c>
       <c r="Q32" t="n">
-        <v>1981.482516594538</v>
+        <v>1981.482516594539</v>
       </c>
       <c r="R32" t="n">
         <v>2027.83456305884</v>
       </c>
       <c r="S32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="T32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="U32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="V32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="X32" t="n">
-        <v>2027.83456305884</v>
+        <v>1941.703445671247</v>
       </c>
       <c r="Y32" t="n">
-        <v>1679.706607002439</v>
+        <v>1540.766772619337</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>686.3393707197113</v>
+        <v>686.3393707197114</v>
       </c>
       <c r="C33" t="n">
-        <v>552.3442994686569</v>
+        <v>552.3442994686571</v>
       </c>
       <c r="D33" t="n">
-        <v>435.4471416880493</v>
+        <v>435.4471416880494</v>
       </c>
       <c r="E33" t="n">
-        <v>314.9543256803773</v>
+        <v>314.9543256803775</v>
       </c>
       <c r="F33" t="n">
-        <v>205.9944458628819</v>
+        <v>205.994445862882</v>
       </c>
       <c r="G33" t="n">
-        <v>100.158367003969</v>
+        <v>100.1583670039693</v>
       </c>
       <c r="H33" t="n">
         <v>40.5566912611768</v>
@@ -6779,28 +6779,28 @@
         <v>59.16348871711069</v>
       </c>
       <c r="J33" t="n">
-        <v>115.1691164850013</v>
+        <v>358.8375204596346</v>
       </c>
       <c r="K33" t="n">
-        <v>617.0581708420641</v>
+        <v>486.2127627736992</v>
       </c>
       <c r="L33" t="n">
-        <v>807.0905323823863</v>
+        <v>676.2451243140213</v>
       </c>
       <c r="M33" t="n">
-        <v>1036.688866662277</v>
+        <v>905.8434585939117</v>
       </c>
       <c r="N33" t="n">
-        <v>1278.199486850267</v>
+        <v>1147.354078781902</v>
       </c>
       <c r="O33" t="n">
-        <v>1490.135504337335</v>
+        <v>1359.29009626897</v>
       </c>
       <c r="P33" t="n">
-        <v>1927.765076929077</v>
+        <v>1521.557543083168</v>
       </c>
       <c r="Q33" t="n">
-        <v>2016.01929331044</v>
+        <v>2015.781916468304</v>
       </c>
       <c r="R33" t="n">
         <v>2027.83456305884</v>
@@ -6812,7 +6812,7 @@
         <v>1786.589927706918</v>
       </c>
       <c r="U33" t="n">
-        <v>1589.315040123212</v>
+        <v>1589.315040123213</v>
       </c>
       <c r="V33" t="n">
         <v>1375.603513116246</v>
@@ -6821,10 +6821,10 @@
         <v>1162.370344852575</v>
       </c>
       <c r="X33" t="n">
-        <v>986.0443629914679</v>
+        <v>986.044362991468</v>
       </c>
       <c r="Y33" t="n">
-        <v>826.6424033552979</v>
+        <v>826.642403355298</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.6500636994603</v>
+        <v>493.6393564627516</v>
       </c>
       <c r="C34" t="n">
-        <v>40.5566912611768</v>
+        <v>493.6393564627516</v>
       </c>
       <c r="D34" t="n">
-        <v>40.5566912611768</v>
+        <v>493.6393564627516</v>
       </c>
       <c r="E34" t="n">
-        <v>40.5566912611768</v>
+        <v>332.7285413310711</v>
       </c>
       <c r="F34" t="n">
-        <v>40.5566912611768</v>
+        <v>168.0974154416623</v>
       </c>
       <c r="G34" t="n">
-        <v>40.5566912611768</v>
+        <v>168.0974154416623</v>
       </c>
       <c r="H34" t="n">
         <v>40.5566912611768</v>
@@ -6885,25 +6885,25 @@
         <v>2027.83456305884</v>
       </c>
       <c r="S34" t="n">
-        <v>1858.303736962258</v>
+        <v>2027.83456305884</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.888875221718</v>
+        <v>1792.419701318301</v>
       </c>
       <c r="U34" t="n">
-        <v>1415.38474039666</v>
+        <v>1509.674326765907</v>
       </c>
       <c r="V34" t="n">
-        <v>1141.498995336182</v>
+        <v>1235.788581705429</v>
       </c>
       <c r="W34" t="n">
-        <v>862.4293308450567</v>
+        <v>956.7189172143035</v>
       </c>
       <c r="X34" t="n">
-        <v>624.08546870474</v>
+        <v>718.3750550739869</v>
       </c>
       <c r="Y34" t="n">
-        <v>399.3497700935047</v>
+        <v>493.6393564627516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.74099050576836</v>
+        <v>446.5687615135511</v>
       </c>
       <c r="C35" t="n">
-        <v>35.74099050576836</v>
+        <v>446.5687615135511</v>
       </c>
       <c r="D35" t="n">
-        <v>35.74099050576836</v>
+        <v>42.10483160661158</v>
       </c>
       <c r="E35" t="n">
-        <v>35.74099050576836</v>
+        <v>42.10483160661158</v>
       </c>
       <c r="F35" t="n">
-        <v>35.74099050576836</v>
+        <v>42.10483160661158</v>
       </c>
       <c r="G35" t="n">
-        <v>35.74099050576836</v>
+        <v>42.10483160661158</v>
       </c>
       <c r="H35" t="n">
         <v>35.74099050576836</v>
@@ -6937,19 +6937,19 @@
         <v>35.74099050576836</v>
       </c>
       <c r="J35" t="n">
-        <v>142.5703854689897</v>
+        <v>142.5703854689896</v>
       </c>
       <c r="K35" t="n">
         <v>323.2290557446586</v>
       </c>
       <c r="L35" t="n">
-        <v>562.2973247064781</v>
+        <v>562.2973247064779</v>
       </c>
       <c r="M35" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152964</v>
       </c>
       <c r="N35" t="n">
-        <v>1126.349039004049</v>
+        <v>1126.349039004048</v>
       </c>
       <c r="O35" t="n">
         <v>1390.269714189817</v>
@@ -6967,22 +6967,22 @@
         <v>1700.918407900825</v>
       </c>
       <c r="T35" t="n">
-        <v>1488.153676578331</v>
+        <v>1488.153676578332</v>
       </c>
       <c r="U35" t="n">
         <v>1231.265735430292</v>
       </c>
       <c r="V35" t="n">
-        <v>881.4281807667726</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="W35" t="n">
-        <v>497.6678799019411</v>
+        <v>847.505434565461</v>
       </c>
       <c r="X35" t="n">
-        <v>97.02448207089367</v>
+        <v>847.505434565461</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.74099050576836</v>
+        <v>446.5687615135511</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>532.1086706583147</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="C36" t="n">
-        <v>398.1135994072604</v>
+        <v>547.5285987132485</v>
       </c>
       <c r="D36" t="n">
-        <v>281.2164416266529</v>
+        <v>430.6314409326409</v>
       </c>
       <c r="E36" t="n">
-        <v>160.7236256189808</v>
+        <v>310.1386249249688</v>
       </c>
       <c r="F36" t="n">
-        <v>51.76374580148541</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G36" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856058</v>
       </c>
       <c r="H36" t="n">
         <v>35.74099050576836</v>
       </c>
       <c r="I36" t="n">
-        <v>35.74099050576836</v>
+        <v>54.34778796170225</v>
       </c>
       <c r="J36" t="n">
-        <v>170.2194754076011</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K36" t="n">
-        <v>297.5947177216657</v>
+        <v>481.3970620182907</v>
       </c>
       <c r="L36" t="n">
-        <v>487.6270792619879</v>
+        <v>671.4294235586128</v>
       </c>
       <c r="M36" t="n">
-        <v>717.2254135418783</v>
+        <v>901.0277578385032</v>
       </c>
       <c r="N36" t="n">
-        <v>958.7360337298692</v>
+        <v>1142.538378026494</v>
       </c>
       <c r="O36" t="n">
-        <v>1170.672051216936</v>
+        <v>1354.474395513561</v>
       </c>
       <c r="P36" t="n">
-        <v>1332.939498031134</v>
+        <v>1516.741842327759</v>
       </c>
       <c r="Q36" t="n">
-        <v>1775.234255540018</v>
+        <v>1687.264539063036</v>
       </c>
       <c r="R36" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="S36" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T36" t="n">
-        <v>1632.359227645522</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="U36" t="n">
-        <v>1435.084340061816</v>
+        <v>1348.53000235279</v>
       </c>
       <c r="V36" t="n">
-        <v>1221.37281305485</v>
+        <v>1134.818475345824</v>
       </c>
       <c r="W36" t="n">
-        <v>1008.139644791179</v>
+        <v>921.585307082153</v>
       </c>
       <c r="X36" t="n">
-        <v>831.8136629300714</v>
+        <v>745.2593252210459</v>
       </c>
       <c r="Y36" t="n">
-        <v>672.4117032939014</v>
+        <v>585.8573655848759</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.9691755099893</v>
+        <v>367.7451780757324</v>
       </c>
       <c r="C37" t="n">
-        <v>753.8758030717058</v>
+        <v>196.6518056374489</v>
       </c>
       <c r="D37" t="n">
-        <v>594.3811583946158</v>
+        <v>196.6518056374489</v>
       </c>
       <c r="E37" t="n">
-        <v>433.4703432629353</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="F37" t="n">
-        <v>268.8392173735265</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="G37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="H37" t="n">
-        <v>122.991576717685</v>
+        <v>35.74099050576836</v>
       </c>
       <c r="I37" t="n">
         <v>35.74099050576836</v>
       </c>
       <c r="J37" t="n">
-        <v>116.86480644676</v>
+        <v>75.71464607487536</v>
       </c>
       <c r="K37" t="n">
-        <v>175.3063357648812</v>
+        <v>340.4363689787107</v>
       </c>
       <c r="L37" t="n">
-        <v>451.4831578130889</v>
+        <v>741.3123650960048</v>
       </c>
       <c r="M37" t="n">
-        <v>889.3896932141677</v>
+        <v>834.2525509827981</v>
       </c>
       <c r="N37" t="n">
-        <v>1315.336568651597</v>
+        <v>928.165124972642</v>
       </c>
       <c r="O37" t="n">
-        <v>1708.927989328891</v>
+        <v>1321.756545649936</v>
       </c>
       <c r="P37" t="n">
-        <v>1768.392458898497</v>
+        <v>1642.11849869266</v>
       </c>
       <c r="Q37" t="n">
         <v>1787.049525288418</v>
       </c>
       <c r="R37" t="n">
-        <v>1745.279268752168</v>
+        <v>1787.049525288418</v>
       </c>
       <c r="S37" t="n">
-        <v>1575.748442655585</v>
+        <v>1617.518699191836</v>
       </c>
       <c r="T37" t="n">
-        <v>1575.748442655585</v>
+        <v>1383.780148378888</v>
       </c>
       <c r="U37" t="n">
-        <v>1575.748442655585</v>
+        <v>1383.780148378888</v>
       </c>
       <c r="V37" t="n">
-        <v>1575.748442655585</v>
+        <v>1109.89440331841</v>
       </c>
       <c r="W37" t="n">
-        <v>1575.748442655585</v>
+        <v>830.8247388272844</v>
       </c>
       <c r="X37" t="n">
-        <v>1337.404580515269</v>
+        <v>592.4808766869677</v>
       </c>
       <c r="Y37" t="n">
-        <v>1112.668881904034</v>
+        <v>367.7451780757324</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>456.7714025520808</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="C38" t="n">
-        <v>456.7714025520808</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="D38" t="n">
-        <v>456.7714025520808</v>
+        <v>1163.129497210657</v>
       </c>
       <c r="E38" t="n">
-        <v>456.7714025520808</v>
+        <v>748.7892817275538</v>
       </c>
       <c r="F38" t="n">
-        <v>35.74099050576836</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="G38" t="n">
-        <v>35.74099050576836</v>
+        <v>327.7588696812413</v>
       </c>
       <c r="H38" t="n">
-        <v>35.74099050576836</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I38" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J38" t="n">
         <v>142.5703854689897</v>
@@ -7198,28 +7198,28 @@
         <v>1740.697478824116</v>
       </c>
       <c r="R38" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.049525288418</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="T38" t="n">
-        <v>1787.049525288418</v>
+        <v>1488.153676578331</v>
       </c>
       <c r="U38" t="n">
-        <v>1787.049525288418</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="V38" t="n">
-        <v>1437.211970624898</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="W38" t="n">
-        <v>1053.451669760067</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="X38" t="n">
-        <v>652.8082719290196</v>
+        <v>1231.265735430292</v>
       </c>
       <c r="Y38" t="n">
-        <v>456.7714025520808</v>
+        <v>1231.265735430292</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>516.0859153625977</v>
+        <v>681.5236699643026</v>
       </c>
       <c r="C39" t="n">
-        <v>382.0908441115434</v>
+        <v>547.5285987132484</v>
       </c>
       <c r="D39" t="n">
-        <v>265.1936863309358</v>
+        <v>430.6314409326408</v>
       </c>
       <c r="E39" t="n">
-        <v>144.7008703232638</v>
+        <v>310.1386249249688</v>
       </c>
       <c r="F39" t="n">
-        <v>35.74099050576836</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G39" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856056</v>
       </c>
       <c r="H39" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I39" t="n">
-        <v>54.34778796170225</v>
+        <v>54.34778796170224</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3534157295928</v>
+        <v>170.2194754076009</v>
       </c>
       <c r="K39" t="n">
-        <v>237.7286580436574</v>
+        <v>297.5947177216655</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7610195839796</v>
+        <v>487.6270792619877</v>
       </c>
       <c r="M39" t="n">
-        <v>657.3593538638701</v>
+        <v>717.2254135418781</v>
       </c>
       <c r="N39" t="n">
-        <v>958.7360337298692</v>
+        <v>958.736033729869</v>
       </c>
       <c r="O39" t="n">
         <v>1170.672051216936</v>
@@ -7274,31 +7274,31 @@
         <v>1332.939498031134</v>
       </c>
       <c r="Q39" t="n">
-        <v>1775.234255540018</v>
+        <v>1775.234255540017</v>
       </c>
       <c r="R39" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S39" t="n">
-        <v>1771.026769992701</v>
+        <v>1700.495187579392</v>
       </c>
       <c r="T39" t="n">
-        <v>1616.336472349805</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="U39" t="n">
-        <v>1419.061584766099</v>
+        <v>1545.804889936496</v>
       </c>
       <c r="V39" t="n">
-        <v>1205.350057759133</v>
+        <v>1332.09336292953</v>
       </c>
       <c r="W39" t="n">
-        <v>992.1168894954615</v>
+        <v>1118.860194665858</v>
       </c>
       <c r="X39" t="n">
-        <v>815.7909076343543</v>
+        <v>942.534212804751</v>
       </c>
       <c r="Y39" t="n">
-        <v>656.3889479981843</v>
+        <v>821.8267025998892</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>691.870948642231</v>
+        <v>371.4654888334606</v>
       </c>
       <c r="C40" t="n">
-        <v>520.7775762039475</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2829315268576</v>
+        <v>200.3721163951771</v>
       </c>
       <c r="E40" t="n">
         <v>200.3721163951771</v>
       </c>
       <c r="F40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="G40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="H40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I40" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J40" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542362</v>
       </c>
       <c r="K40" t="n">
-        <v>175.3063357648812</v>
+        <v>110.3049721335448</v>
       </c>
       <c r="L40" t="n">
-        <v>576.1823318821753</v>
+        <v>511.1809682508389</v>
       </c>
       <c r="M40" t="n">
-        <v>669.1225177689686</v>
+        <v>889.3896932141672</v>
       </c>
       <c r="N40" t="n">
-        <v>1095.069393206398</v>
+        <v>1315.336568651597</v>
       </c>
       <c r="O40" t="n">
-        <v>1488.660813883692</v>
+        <v>1708.927989328891</v>
       </c>
       <c r="P40" t="n">
-        <v>1642.11849869266</v>
+        <v>1768.392458898497</v>
       </c>
       <c r="Q40" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R40" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S40" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="T40" t="n">
-        <v>1787.049525288418</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="U40" t="n">
-        <v>1504.304150736024</v>
+        <v>1462.533894199774</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.304150736024</v>
+        <v>1188.648149139296</v>
       </c>
       <c r="W40" t="n">
-        <v>1342.650215787827</v>
+        <v>909.5784846481702</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.306353647511</v>
+        <v>783.9008938387403</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.5706550362754</v>
+        <v>559.165195227505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>324.5603159413865</v>
+        <v>1284.434762461769</v>
       </c>
       <c r="C41" t="n">
-        <v>324.5603159413865</v>
+        <v>874.310171775039</v>
       </c>
       <c r="D41" t="n">
-        <v>324.5603159413865</v>
+        <v>874.310171775039</v>
       </c>
       <c r="E41" t="n">
-        <v>324.5603159413865</v>
+        <v>459.9699562919356</v>
       </c>
       <c r="F41" t="n">
-        <v>324.5603159413865</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="G41" t="n">
-        <v>324.5603159413865</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H41" t="n">
-        <v>35.74099050576836</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I41" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J41" t="n">
-        <v>142.5703854689896</v>
+        <v>142.5703854689897</v>
       </c>
       <c r="K41" t="n">
-        <v>323.2290557446587</v>
+        <v>323.2290557446586</v>
       </c>
       <c r="L41" t="n">
         <v>562.2973247064781</v>
@@ -7435,28 +7435,28 @@
         <v>1740.697478824116</v>
       </c>
       <c r="R41" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S41" t="n">
         <v>1700.918407900825</v>
       </c>
       <c r="T41" t="n">
-        <v>1488.153676578332</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="U41" t="n">
-        <v>1231.265735430292</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="V41" t="n">
-        <v>1108.964014637265</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="W41" t="n">
-        <v>725.203713772434</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="X41" t="n">
-        <v>324.5603159413865</v>
+        <v>1694.655942126258</v>
       </c>
       <c r="Y41" t="n">
-        <v>324.5603159413865</v>
+        <v>1694.655942126258</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>445.5543329492892</v>
+        <v>681.5236699643026</v>
       </c>
       <c r="C42" t="n">
-        <v>382.0908441115434</v>
+        <v>547.5285987132484</v>
       </c>
       <c r="D42" t="n">
-        <v>265.1936863309358</v>
+        <v>430.6314409326408</v>
       </c>
       <c r="E42" t="n">
-        <v>144.7008703232638</v>
+        <v>310.1386249249688</v>
       </c>
       <c r="F42" t="n">
-        <v>35.74099050576836</v>
+        <v>201.1787451074734</v>
       </c>
       <c r="G42" t="n">
-        <v>35.74099050576836</v>
+        <v>95.34266624856056</v>
       </c>
       <c r="H42" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I42" t="n">
-        <v>35.74099050576836</v>
+        <v>54.34778796170224</v>
       </c>
       <c r="J42" t="n">
-        <v>335.4150222482922</v>
+        <v>354.0218197042261</v>
       </c>
       <c r="K42" t="n">
-        <v>462.7902645623569</v>
+        <v>651.6352588491864</v>
       </c>
       <c r="L42" t="n">
-        <v>652.822626102679</v>
+        <v>841.6676203895086</v>
       </c>
       <c r="M42" t="n">
-        <v>882.4209603825694</v>
+        <v>1071.265954669399</v>
       </c>
       <c r="N42" t="n">
-        <v>1123.93158057056</v>
+        <v>1312.77657485739</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.867598057627</v>
+        <v>1524.712592344457</v>
       </c>
       <c r="P42" t="n">
-        <v>1498.135044871825</v>
+        <v>1686.980039158655</v>
       </c>
       <c r="Q42" t="n">
-        <v>1775.234255540018</v>
+        <v>1775.234255540017</v>
       </c>
       <c r="R42" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.495187579392</v>
+        <v>1739.1896370107</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.804889936496</v>
+        <v>1584.499339367804</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.53000235279</v>
+        <v>1584.499339367804</v>
       </c>
       <c r="V42" t="n">
-        <v>1134.818475345824</v>
+        <v>1370.787812360838</v>
       </c>
       <c r="W42" t="n">
-        <v>921.585307082153</v>
+        <v>1157.554644097166</v>
       </c>
       <c r="X42" t="n">
-        <v>745.2593252210459</v>
+        <v>981.2286622360592</v>
       </c>
       <c r="Y42" t="n">
-        <v>585.8573655848759</v>
+        <v>821.8267025998892</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>583.314848591218</v>
+        <v>632.5890920137322</v>
       </c>
       <c r="C43" t="n">
-        <v>412.2214761529345</v>
+        <v>461.4957195754487</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2214761529345</v>
+        <v>461.4957195754487</v>
       </c>
       <c r="E43" t="n">
-        <v>251.310661021254</v>
+        <v>461.4957195754487</v>
       </c>
       <c r="F43" t="n">
-        <v>86.67953513184528</v>
+        <v>430.2799368512775</v>
       </c>
       <c r="G43" t="n">
-        <v>35.74099050576836</v>
+        <v>263.9970489706581</v>
       </c>
       <c r="H43" t="n">
-        <v>35.74099050576836</v>
+        <v>122.991576717685</v>
       </c>
       <c r="I43" t="n">
-        <v>35.74099050576836</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J43" t="n">
-        <v>116.86480644676</v>
+        <v>75.71464607487491</v>
       </c>
       <c r="K43" t="n">
-        <v>175.3063357648812</v>
+        <v>340.4363689787103</v>
       </c>
       <c r="L43" t="n">
-        <v>576.1823318821753</v>
+        <v>741.3123650960043</v>
       </c>
       <c r="M43" t="n">
-        <v>669.1225177689686</v>
+        <v>834.2525509827976</v>
       </c>
       <c r="N43" t="n">
-        <v>1095.069393206398</v>
+        <v>928.1651249726416</v>
       </c>
       <c r="O43" t="n">
-        <v>1488.660813883692</v>
+        <v>1321.756545649936</v>
       </c>
       <c r="P43" t="n">
         <v>1642.11849869266</v>
       </c>
       <c r="Q43" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R43" t="n">
-        <v>1787.049525288418</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S43" t="n">
-        <v>1787.049525288418</v>
+        <v>1617.518699191835</v>
       </c>
       <c r="T43" t="n">
-        <v>1787.049525288418</v>
+        <v>1382.103837451296</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.049525288418</v>
+        <v>1099.358462898902</v>
       </c>
       <c r="V43" t="n">
-        <v>1513.16378022794</v>
+        <v>1099.358462898902</v>
       </c>
       <c r="W43" t="n">
-        <v>1234.094115736814</v>
+        <v>820.2887984077765</v>
       </c>
       <c r="X43" t="n">
-        <v>995.7502535964977</v>
+        <v>820.2887984077765</v>
       </c>
       <c r="Y43" t="n">
-        <v>771.0145549852624</v>
+        <v>820.2887984077765</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.2935295404552</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="C44" t="n">
-        <v>506.2935295404552</v>
+        <v>1290.793817214095</v>
       </c>
       <c r="D44" t="n">
-        <v>506.2935295404552</v>
+        <v>886.3298873071553</v>
       </c>
       <c r="E44" t="n">
-        <v>506.2935295404552</v>
+        <v>471.989671824052</v>
       </c>
       <c r="F44" t="n">
-        <v>445.5109459471604</v>
+        <v>50.95925977773959</v>
       </c>
       <c r="G44" t="n">
-        <v>38.93954424562313</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="H44" t="n">
-        <v>38.93954424562313</v>
+        <v>38.93954424562315</v>
       </c>
       <c r="I44" t="n">
-        <v>35.74099050576833</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J44" t="n">
         <v>142.5703854689897</v>
@@ -7657,7 +7657,7 @@
         <v>562.2973247064781</v>
       </c>
       <c r="M44" t="n">
-        <v>841.1329596152968</v>
+        <v>841.1329596152966</v>
       </c>
       <c r="N44" t="n">
         <v>1126.349039004049</v>
@@ -7666,34 +7666,34 @@
         <v>1390.269714189817</v>
       </c>
       <c r="P44" t="n">
-        <v>1601.546999092373</v>
+        <v>1601.546999092372</v>
       </c>
       <c r="Q44" t="n">
         <v>1740.697478824116</v>
       </c>
       <c r="R44" t="n">
-        <v>1787.049525288416</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S44" t="n">
-        <v>1700.918407900823</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="T44" t="n">
-        <v>1700.918407900823</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="U44" t="n">
-        <v>1700.918407900823</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="V44" t="n">
-        <v>1700.918407900823</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="W44" t="n">
-        <v>1317.158107035992</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="X44" t="n">
-        <v>916.5147092049447</v>
+        <v>1700.918407900825</v>
       </c>
       <c r="Y44" t="n">
-        <v>916.5147092049447</v>
+        <v>1700.918407900825</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>516.0859153625977</v>
+        <v>532.1086706583145</v>
       </c>
       <c r="C45" t="n">
-        <v>382.0908441115433</v>
+        <v>398.1135994072602</v>
       </c>
       <c r="D45" t="n">
-        <v>265.1936863309357</v>
+        <v>281.2164416266526</v>
       </c>
       <c r="E45" t="n">
-        <v>144.7008703232638</v>
+        <v>160.7236256189806</v>
       </c>
       <c r="F45" t="n">
-        <v>35.74099050576833</v>
+        <v>160.7236256189806</v>
       </c>
       <c r="G45" t="n">
-        <v>35.74099050576833</v>
+        <v>95.34266624856056</v>
       </c>
       <c r="H45" t="n">
-        <v>35.74099050576833</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="I45" t="n">
-        <v>35.74099050576833</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J45" t="n">
-        <v>335.4150222482922</v>
+        <v>170.2194754076009</v>
       </c>
       <c r="K45" t="n">
-        <v>462.7902645623568</v>
+        <v>297.5947177216655</v>
       </c>
       <c r="L45" t="n">
-        <v>652.8226261026789</v>
+        <v>487.6270792619877</v>
       </c>
       <c r="M45" t="n">
-        <v>882.4209603825693</v>
+        <v>717.2254135418781</v>
       </c>
       <c r="N45" t="n">
-        <v>1123.93158057056</v>
+        <v>958.736033729869</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.867598057627</v>
+        <v>1170.672051216936</v>
       </c>
       <c r="P45" t="n">
-        <v>1498.135044871825</v>
+        <v>1332.939498031134</v>
       </c>
       <c r="Q45" t="n">
-        <v>1775.234255540016</v>
+        <v>1775.234255540017</v>
       </c>
       <c r="R45" t="n">
-        <v>1787.049525288416</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.026769992701</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="T45" t="n">
-        <v>1616.336472349805</v>
+        <v>1632.359227645522</v>
       </c>
       <c r="U45" t="n">
-        <v>1419.061584766099</v>
+        <v>1435.084340061816</v>
       </c>
       <c r="V45" t="n">
-        <v>1205.350057759133</v>
+        <v>1221.37281305485</v>
       </c>
       <c r="W45" t="n">
-        <v>992.1168894954615</v>
+        <v>1008.139644791178</v>
       </c>
       <c r="X45" t="n">
-        <v>815.7909076343543</v>
+        <v>831.8136629300711</v>
       </c>
       <c r="Y45" t="n">
-        <v>656.3889479981843</v>
+        <v>672.4117032939012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.0044351789697</v>
+        <v>909.5784846481702</v>
       </c>
       <c r="C46" t="n">
-        <v>594.9110627406862</v>
+        <v>738.4851122098867</v>
       </c>
       <c r="D46" t="n">
-        <v>594.9110627406862</v>
+        <v>578.9904675327966</v>
       </c>
       <c r="E46" t="n">
-        <v>594.9110627406862</v>
+        <v>418.0796524011161</v>
       </c>
       <c r="F46" t="n">
-        <v>430.2799368512775</v>
+        <v>253.4485265117074</v>
       </c>
       <c r="G46" t="n">
-        <v>263.9970489706581</v>
+        <v>87.16563863108794</v>
       </c>
       <c r="H46" t="n">
-        <v>122.991576717685</v>
+        <v>87.16563863108794</v>
       </c>
       <c r="I46" t="n">
-        <v>35.74099050576833</v>
+        <v>35.74099050576835</v>
       </c>
       <c r="J46" t="n">
-        <v>116.86480644676</v>
+        <v>51.86344281542362</v>
       </c>
       <c r="K46" t="n">
-        <v>381.5865293505954</v>
+        <v>110.3049721335448</v>
       </c>
       <c r="L46" t="n">
-        <v>782.4625254678895</v>
+        <v>451.4831578130884</v>
       </c>
       <c r="M46" t="n">
-        <v>1149.327310401537</v>
+        <v>889.3896932141672</v>
       </c>
       <c r="N46" t="n">
-        <v>1243.239884391381</v>
+        <v>1315.336568651597</v>
       </c>
       <c r="O46" t="n">
-        <v>1321.756545649934</v>
+        <v>1708.927989328891</v>
       </c>
       <c r="P46" t="n">
-        <v>1642.118498692659</v>
+        <v>1768.392458898497</v>
       </c>
       <c r="Q46" t="n">
-        <v>1787.049525288416</v>
+        <v>1787.049525288417</v>
       </c>
       <c r="R46" t="n">
-        <v>1745.279268752166</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="S46" t="n">
-        <v>1575.748442655584</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="T46" t="n">
-        <v>1416.783702324566</v>
+        <v>1745.279268752168</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.783702324566</v>
+        <v>1462.533894199774</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.783702324566</v>
+        <v>1188.648149139296</v>
       </c>
       <c r="W46" t="n">
-        <v>1416.783702324566</v>
+        <v>909.5784846481702</v>
       </c>
       <c r="X46" t="n">
-        <v>1178.43984018425</v>
+        <v>909.5784846481702</v>
       </c>
       <c r="Y46" t="n">
-        <v>953.7041415730141</v>
+        <v>909.5784846481702</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540307</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>79.26551225650732</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.2291760894419</v>
+        <v>357.6167082096172</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>184.0248651889489</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.79011084687605</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>0.9707135290540521</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>46.37330670087093</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>282.8558693885714</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>101.8942200099479</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9090,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>256.8497987851243</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>288.150039471248</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>171.9577745766627</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83.09947510496437</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>256.8497987851243</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,10 +9336,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>103.2104880375572</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>83.09947510496443</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>83.09947510496437</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>48.48596688036253</v>
+        <v>256.8497987851243</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>238.3528656717315</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.3528656717315</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9713,19 +9713,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9707135290540521</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>315.0067604209503</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>271.370026245207</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>0.2397745880165409</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>317.1506174091142</v>
+        <v>231.6698528678478</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9813,10 +9813,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>50.50259229437072</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0744140796692</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>110.0744140796695</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>157.5111761007957</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>0.2397745880163118</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>50.50259229437027</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>112.3941039857853</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>238.352865671731</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>238.3528656717311</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>315.0067604209503</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.4335808119215</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.2397745880163118</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10284,13 +10284,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>178.0520470477412</v>
+        <v>94.73815007385517</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>238.3528656717311</v>
       </c>
       <c r="P32" t="n">
-        <v>238.3528656717309</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>378.2967798414123</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>278.1435613914593</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.2397745880163118</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>178.0520470477412</v>
+        <v>178.0520470477415</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9707135290540521</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>79.26551225650724</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>357.6167082096169</v>
+        <v>83.09947510496437</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>24.0921245044967</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>191.1918557231683</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.47076735152331</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>60.47076735152348</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>288.1500394712475</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>94.94264165592119</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9707135290540521</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>171.9577745766622</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.7525194816463</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>24.09212450449625</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,13 +11229,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>94.94264165592142</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11375,7 +11375,7 @@
         <v>0.9707135290540521</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>79.26551225650701</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.7525194816449</v>
+        <v>357.6167082096169</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>256.8497987851239</v>
       </c>
       <c r="M46" t="n">
-        <v>276.6915141887418</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,16 +23263,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>185.2441504954087</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.5056876845219</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.319061736559</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>28.18809348866927</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.26572877438416</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>85.6887943319354</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>128.8319255745384</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.35255397088749</v>
+        <v>41.35255397088748</v>
       </c>
       <c r="S13" t="n">
         <v>167.8355178356165</v>
@@ -23472,19 +23472,19 @@
         <v>233.0607131231338</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>226.9172083226838</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>80.13965407919028</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>289.9724209235152</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.4232178743725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>88.91519032756359</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>85.68879433193541</v>
       </c>
       <c r="T15" t="n">
-        <v>147.9208493129281</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>89.905500915503</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>221.7851280863427</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>185.2441504954087</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>191.437581781999</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.319061736559</v>
@@ -23797,7 +23797,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>104.7777180703237</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>59.00565898536429</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>69.82626658917519</v>
       </c>
       <c r="T18" t="n">
-        <v>153.1433946664671</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>80.46624897839649</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.65530697243069</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I19" t="n">
         <v>86.3780803497975</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.09567796228833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>285.9311321812619</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>85.26980621371689</v>
       </c>
       <c r="T20" t="n">
-        <v>191.8842937628655</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U20" t="n">
         <v>254.319061736559</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>202.096234872429</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>22.03523190796685</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>85.68879433193541</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>147.920849312928</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6200590018132</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I22" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>167.8355178356165</v>
       </c>
       <c r="T22" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.5039469965392</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>221.8786537770191</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>35.27602136034568</v>
       </c>
       <c r="F23" t="n">
-        <v>45.97716141835036</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.5056876845219</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.77466495753202</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>279.9179208068699</v>
       </c>
       <c r="V25" t="n">
-        <v>264.4544522876931</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -24496,7 +24496,7 @@
         <v>85.26980621371689</v>
       </c>
       <c r="T26" t="n">
-        <v>114.5421597528027</v>
+        <v>210.6370840092685</v>
       </c>
       <c r="U26" t="n">
         <v>254.319061736559</v>
@@ -24505,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>321.1342554359396</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>117.2809222609227</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.35255397088751</v>
       </c>
       <c r="S28" t="n">
         <v>167.8355178356165</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>62.32045250117291</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>72.17343143001261</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.6370840092685</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>138.8651951701498</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H31" t="n">
-        <v>13.45631293608291</v>
+        <v>74.31605313121101</v>
       </c>
       <c r="I31" t="n">
         <v>86.3780803497975</v>
@@ -24888,16 +24888,16 @@
         <v>41.35255397088751</v>
       </c>
       <c r="S31" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>129.8593103955204</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5056876845219</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>285.9311321812619</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.6370840092685</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.28062982555406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6200590018132</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5954175304433</v>
+        <v>13.33010059176263</v>
       </c>
       <c r="I34" t="n">
         <v>86.3780803497975</v>
@@ -25125,13 +25125,13 @@
         <v>41.35255397088751</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>74.48882733006252</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25171,7 +25171,7 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H35" t="n">
-        <v>285.9311321812619</v>
+        <v>279.6309294914271</v>
       </c>
       <c r="I35" t="n">
         <v>3.166568202456247</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>336.2566496719168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>100.9545231063196</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>88.91519032756382</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.68879433193541</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>20.23089475253013</v>
+        <v>164.6200590018132</v>
       </c>
       <c r="H37" t="n">
         <v>139.5954175304433</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.3780803497975</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.35255397088751</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0607131231338</v>
+        <v>1.65954781831573</v>
       </c>
       <c r="U37" t="n">
         <v>279.9179208068699</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>332.9644147704316</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>402.5056876845219</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9311321812619</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.166568202456247</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.26980621371689</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.6370840092685</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.319061736559</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.8508056382214</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>69.82626658917542</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>38.30750493699519</v>
       </c>
     </row>
     <row r="40">
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.35255397088751</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>167.8355178356165</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>116.2415722474995</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>111.5396086175779</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.5056876845219</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.9311321812619</v>
       </c>
       <c r="I41" t="n">
-        <v>3.166568202456247</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>204.437242892448</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.319061736559</v>
       </c>
       <c r="V41" t="n">
-        <v>225.2604755317874</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>69.82626658917536</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7777180703237</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>38.3075049369948</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3021387078687</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>132.0811897335852</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1908998219971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.5954175304433</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>86.3780803497975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>41.35255397088751</v>
       </c>
       <c r="S43" t="n">
-        <v>167.8355178356165</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.0607131231338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>356.6453501684874</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>390.6061693077266</v>
       </c>
       <c r="H44" t="n">
         <v>285.9311321812619</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>104.7777180703237</v>
+        <v>40.05056829360787</v>
       </c>
       <c r="H45" t="n">
-        <v>59.00565898536429</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>69.82626658917677</v>
+        <v>85.68879433193541</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.5954175304433</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.46767870573111</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.8355178356165</v>
       </c>
       <c r="T46" t="n">
-        <v>75.68562019542597</v>
+        <v>233.0607131231338</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9179208068699</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406091.2871868113</v>
+        <v>406091.2871868115</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406091.2871868112</v>
+        <v>406091.2871868113</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>455823.4529127978</v>
+        <v>455823.4529127979</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>455823.452912798</v>
+        <v>455823.4529127979</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>455823.4529127979</v>
+        <v>455823.452912798</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>406091.2871868113</v>
+        <v>406091.2871868112</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406091.287186811</v>
+        <v>406091.2871868112</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>453606.7885146522</v>
       </c>
       <c r="C2" t="n">
-        <v>453606.7885146522</v>
+        <v>453606.7885146521</v>
       </c>
       <c r="D2" t="n">
         <v>453606.7885146521</v>
       </c>
       <c r="E2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108978</v>
       </c>
       <c r="F2" t="n">
         <v>257719.6121108976</v>
       </c>
       <c r="G2" t="n">
-        <v>257719.6121108976</v>
+        <v>257719.6121108977</v>
       </c>
       <c r="H2" t="n">
         <v>257719.6121108976</v>
@@ -26343,19 +26343,19 @@
         <v>281594.5176914025</v>
       </c>
       <c r="L2" t="n">
-        <v>281594.5176914026</v>
+        <v>281594.5176914025</v>
       </c>
       <c r="M2" t="n">
         <v>257719.6121108977</v>
       </c>
       <c r="N2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108976</v>
       </c>
       <c r="O2" t="n">
-        <v>257719.6121108977</v>
+        <v>257719.6121108976</v>
       </c>
       <c r="P2" t="n">
-        <v>257719.6121108975</v>
+        <v>257719.6121108976</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560128.355963044</v>
+        <v>560128.3559630443</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16007.44950723712</v>
+        <v>16007.44950723708</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>96333.82383685872</v>
+        <v>96333.82383685878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>353297.4176434987</v>
       </c>
       <c r="E4" t="n">
-        <v>19899.27969634113</v>
+        <v>19899.27969634116</v>
       </c>
       <c r="F4" t="n">
         <v>19899.27969634115</v>
@@ -26438,28 +26438,28 @@
         <v>19899.27969634115</v>
       </c>
       <c r="I4" t="n">
-        <v>33871.28632915238</v>
+        <v>33871.28632915237</v>
       </c>
       <c r="J4" t="n">
-        <v>33871.28632915233</v>
+        <v>33871.28632915236</v>
       </c>
       <c r="K4" t="n">
         <v>33871.28632915235</v>
       </c>
       <c r="L4" t="n">
-        <v>33871.28632915234</v>
+        <v>33871.28632915236</v>
       </c>
       <c r="M4" t="n">
         <v>19899.27969634115</v>
       </c>
       <c r="N4" t="n">
-        <v>19899.27969634115</v>
+        <v>19899.27969634113</v>
       </c>
       <c r="O4" t="n">
-        <v>19899.27969634115</v>
+        <v>19899.27969634114</v>
       </c>
       <c r="P4" t="n">
-        <v>19899.27969634106</v>
+        <v>19899.27969634114</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886575</v>
       </c>
       <c r="F5" t="n">
         <v>38742.42450886572</v>
@@ -26493,25 +26493,25 @@
         <v>42402.35708297614</v>
       </c>
       <c r="J5" t="n">
-        <v>42402.35708297613</v>
+        <v>42402.35708297614</v>
       </c>
       <c r="K5" t="n">
-        <v>42402.35708297613</v>
+        <v>42402.35708297614</v>
       </c>
       <c r="L5" t="n">
-        <v>42402.35708297613</v>
+        <v>42402.35708297614</v>
       </c>
       <c r="M5" t="n">
         <v>38742.42450886572</v>
       </c>
       <c r="N5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886571</v>
       </c>
       <c r="O5" t="n">
-        <v>38742.42450886572</v>
+        <v>38742.42450886571</v>
       </c>
       <c r="P5" t="n">
-        <v>38742.4245088657</v>
+        <v>38742.42450886571</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66681.77087115351</v>
+        <v>66672.97118552403</v>
       </c>
       <c r="C6" t="n">
-        <v>66681.77087115345</v>
+        <v>66672.97118552397</v>
       </c>
       <c r="D6" t="n">
-        <v>66681.77087115339</v>
+        <v>66672.97118552397</v>
       </c>
       <c r="E6" t="n">
-        <v>-361050.4480573531</v>
+        <v>-361758.8448015677</v>
       </c>
       <c r="F6" t="n">
-        <v>199077.9079056907</v>
+        <v>198369.5111614769</v>
       </c>
       <c r="G6" t="n">
-        <v>199077.9079056907</v>
+        <v>198369.5111614766</v>
       </c>
       <c r="H6" t="n">
-        <v>199077.9079056908</v>
+        <v>198369.5111614765</v>
       </c>
       <c r="I6" t="n">
-        <v>189313.424772037</v>
+        <v>188690.2955477532</v>
       </c>
       <c r="J6" t="n">
-        <v>205320.8742792741</v>
+        <v>204697.7450549902</v>
       </c>
       <c r="K6" t="n">
-        <v>205320.874279274</v>
+        <v>204697.7450549902</v>
       </c>
       <c r="L6" t="n">
-        <v>205320.8742792742</v>
+        <v>204697.7450549902</v>
       </c>
       <c r="M6" t="n">
-        <v>102744.0840688321</v>
+        <v>102035.6873246179</v>
       </c>
       <c r="N6" t="n">
-        <v>199077.9079056908</v>
+        <v>198369.5111614765</v>
       </c>
       <c r="O6" t="n">
-        <v>199077.9079056908</v>
+        <v>198369.5111614765</v>
       </c>
       <c r="P6" t="n">
-        <v>199077.9079056908</v>
+        <v>198369.5111614765</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165952</v>
       </c>
       <c r="F3" t="n">
         <v>531.1592534165949</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
         <v>446.7623813221045</v>
@@ -26822,16 +26822,16 @@
         <v>506.95864076471</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221044</v>
+        <v>446.7623813221045</v>
       </c>
       <c r="N4" t="n">
         <v>446.7623813221044</v>
       </c>
       <c r="O4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221044</v>
       </c>
       <c r="P4" t="n">
-        <v>446.7623813221041</v>
+        <v>446.7623813221044</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>531.159253416595</v>
+        <v>531.1592534165952</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-1.964942509355481e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.19625944260559</v>
+        <v>60.19625944260542</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>386.5661218794992</v>
+        <v>386.5661218794994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>446.7623813221045</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.13531358157425</v>
+        <v>2.135313581574251</v>
       </c>
       <c r="H11" t="n">
-        <v>21.86828021729729</v>
+        <v>21.8682802172973</v>
       </c>
       <c r="I11" t="n">
-        <v>82.32167685364134</v>
+        <v>82.32167685364138</v>
       </c>
       <c r="J11" t="n">
-        <v>181.2320710941376</v>
+        <v>181.2320710941377</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6198950021757</v>
+        <v>271.6198950021758</v>
       </c>
       <c r="L11" t="n">
-        <v>336.9684980242787</v>
+        <v>336.9684980242788</v>
       </c>
       <c r="M11" t="n">
-        <v>374.9423809305997</v>
+        <v>374.9423809305999</v>
       </c>
       <c r="N11" t="n">
-        <v>381.0093406442476</v>
+        <v>381.0093406442477</v>
       </c>
       <c r="O11" t="n">
-        <v>359.7763162174686</v>
+        <v>359.7763162174688</v>
       </c>
       <c r="P11" t="n">
-        <v>307.0607621723543</v>
+        <v>307.0607621723544</v>
       </c>
       <c r="Q11" t="n">
-        <v>230.5898445322264</v>
+        <v>230.5898445322265</v>
       </c>
       <c r="R11" t="n">
         <v>134.1323917685636</v>
       </c>
       <c r="S11" t="n">
-        <v>48.65845824012326</v>
+        <v>48.65845824012328</v>
       </c>
       <c r="T11" t="n">
-        <v>9.347335203341283</v>
+        <v>9.347335203341286</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1708250865259399</v>
+        <v>0.17082508652594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.142493488480978</v>
+        <v>1.142493488480979</v>
       </c>
       <c r="H12" t="n">
-        <v>11.03408184927681</v>
+        <v>11.03408184927682</v>
       </c>
       <c r="I12" t="n">
-        <v>39.33585037094596</v>
+        <v>39.33585037094597</v>
       </c>
       <c r="J12" t="n">
         <v>107.9405799796875</v>
       </c>
       <c r="K12" t="n">
-        <v>184.487643707913</v>
+        <v>184.4876437079131</v>
       </c>
       <c r="L12" t="n">
-        <v>248.0664041546088</v>
+        <v>248.066404154609</v>
       </c>
       <c r="M12" t="n">
-        <v>289.4817931120442</v>
+        <v>289.4817931120443</v>
       </c>
       <c r="N12" t="n">
-        <v>297.143514795761</v>
+        <v>297.1435147957612</v>
       </c>
       <c r="O12" t="n">
-        <v>271.8282643404719</v>
+        <v>271.8282643404721</v>
       </c>
       <c r="P12" t="n">
-        <v>218.1661469363369</v>
+        <v>218.166146936337</v>
       </c>
       <c r="Q12" t="n">
         <v>145.8382916173263</v>
       </c>
       <c r="R12" t="n">
-        <v>70.93481501288039</v>
+        <v>70.93481501288042</v>
       </c>
       <c r="S12" t="n">
-        <v>21.22131545489885</v>
+        <v>21.22131545489886</v>
       </c>
       <c r="T12" t="n">
-        <v>4.605050508394817</v>
+        <v>4.605050508394819</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07516404529480121</v>
+        <v>0.07516404529480124</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9578281618987777</v>
+        <v>0.9578281618987782</v>
       </c>
       <c r="H13" t="n">
-        <v>8.515963112154594</v>
+        <v>8.515963112154598</v>
       </c>
       <c r="I13" t="n">
-        <v>28.80450508691962</v>
+        <v>28.80450508691963</v>
       </c>
       <c r="J13" t="n">
-        <v>67.71845104624359</v>
+        <v>67.71845104624362</v>
       </c>
       <c r="K13" t="n">
         <v>111.2822173551489</v>
@@ -31931,28 +31931,28 @@
         <v>150.1439181420057</v>
       </c>
       <c r="N13" t="n">
-        <v>146.5738313567467</v>
+        <v>146.5738313567468</v>
       </c>
       <c r="O13" t="n">
-        <v>135.38465692002</v>
+        <v>135.3846569200201</v>
       </c>
       <c r="P13" t="n">
         <v>115.8449624172849</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.20504726590585</v>
+        <v>80.20504726590588</v>
       </c>
       <c r="R13" t="n">
-        <v>43.06743717046685</v>
+        <v>43.06743717046687</v>
       </c>
       <c r="S13" t="n">
-        <v>16.69233260327233</v>
+        <v>16.69233260327234</v>
       </c>
       <c r="T13" t="n">
-        <v>4.09253850993114</v>
+        <v>4.092538509931142</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05224517246720612</v>
+        <v>0.05224517246720614</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>107.9084797608297</v>
+        <v>107.9084797608298</v>
       </c>
       <c r="K11" t="n">
-        <v>182.4835053289585</v>
+        <v>182.4835053289586</v>
       </c>
       <c r="L11" t="n">
-        <v>241.4830999614339</v>
+        <v>241.483099961434</v>
       </c>
       <c r="M11" t="n">
-        <v>281.6521564735543</v>
+        <v>281.6521564735544</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0970498876283</v>
+        <v>288.0970498876284</v>
       </c>
       <c r="O11" t="n">
-        <v>266.5865405916855</v>
+        <v>266.5865405916857</v>
       </c>
       <c r="P11" t="n">
-        <v>213.4113988914702</v>
+        <v>213.4113988914703</v>
       </c>
       <c r="Q11" t="n">
         <v>140.5560401330744</v>
       </c>
       <c r="R11" t="n">
-        <v>46.82024895384005</v>
+        <v>46.82024895384011</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>18.79474490498373</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>56.57134117968749</v>
+        <v>135.8368534361948</v>
       </c>
       <c r="K12" t="n">
-        <v>128.6618609232976</v>
+        <v>128.6618609232977</v>
       </c>
       <c r="L12" t="n">
-        <v>191.9518803437598</v>
+        <v>191.9518803437599</v>
       </c>
       <c r="M12" t="n">
-        <v>231.9175093736268</v>
+        <v>231.9175093736269</v>
       </c>
       <c r="N12" t="n">
-        <v>243.950121402011</v>
+        <v>243.9501214020112</v>
       </c>
       <c r="O12" t="n">
-        <v>214.076785340472</v>
+        <v>214.0767853404721</v>
       </c>
       <c r="P12" t="n">
-        <v>163.9065119335332</v>
+        <v>163.9065119335333</v>
       </c>
       <c r="Q12" t="n">
-        <v>418.3748492019295</v>
+        <v>446.7623813221048</v>
       </c>
       <c r="R12" t="n">
-        <v>100.7929153791732</v>
+        <v>11.93461590747501</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.94324842524412</v>
+        <v>16.2853053632882</v>
       </c>
       <c r="K13" t="n">
-        <v>267.3956797008438</v>
+        <v>243.056712985031</v>
       </c>
       <c r="L13" t="n">
-        <v>404.9252486033274</v>
+        <v>87.77463119421321</v>
       </c>
       <c r="M13" t="n">
         <v>442.3298337384635</v>
       </c>
       <c r="N13" t="n">
-        <v>94.86118584832725</v>
+        <v>430.2493691287167</v>
       </c>
       <c r="O13" t="n">
-        <v>79.30975884702369</v>
+        <v>79.30975884702374</v>
       </c>
       <c r="P13" t="n">
-        <v>323.5979323663882</v>
+        <v>323.5979323663883</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63563245285633</v>
+        <v>146.3949763593512</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>18.79474490498372</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>56.57134117968746</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K15" t="n">
         <v>128.6618609232976</v>
@@ -35740,13 +35740,13 @@
         <v>243.950121402011</v>
       </c>
       <c r="O15" t="n">
-        <v>260.4500920413428</v>
+        <v>214.0767853404719</v>
       </c>
       <c r="P15" t="n">
-        <v>446.7623813221045</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.14567311248749</v>
+        <v>191.0398931224354</v>
       </c>
       <c r="R15" t="n">
         <v>100.7929153791732</v>
@@ -35810,10 +35810,10 @@
         <v>59.03184779608203</v>
       </c>
       <c r="L16" t="n">
-        <v>344.6244299793374</v>
+        <v>404.9252486033273</v>
       </c>
       <c r="M16" t="n">
-        <v>442.3298337384634</v>
+        <v>382.0290151144735</v>
       </c>
       <c r="N16" t="n">
         <v>430.2493691287166</v>
@@ -35904,7 +35904,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.5560401330743</v>
+        <v>140.5560401330744</v>
       </c>
       <c r="R17" t="n">
         <v>46.82024895384002</v>
@@ -35965,7 +35965,7 @@
         <v>302.7010421641655</v>
       </c>
       <c r="K18" t="n">
-        <v>128.6618609232976</v>
+        <v>300.6196354999603</v>
       </c>
       <c r="L18" t="n">
         <v>191.9518803437597</v>
@@ -35974,7 +35974,7 @@
         <v>231.9175093736267</v>
       </c>
       <c r="N18" t="n">
-        <v>327.0495965069753</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O18" t="n">
         <v>214.0767853404719</v>
@@ -35986,7 +35986,7 @@
         <v>89.14567311248749</v>
       </c>
       <c r="R18" t="n">
-        <v>100.7929153791732</v>
+        <v>11.93461590747497</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,10 +36044,10 @@
         <v>16.28530536328815</v>
       </c>
       <c r="K19" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608203</v>
       </c>
       <c r="L19" t="n">
-        <v>87.77463119421313</v>
+        <v>344.6244299793374</v>
       </c>
       <c r="M19" t="n">
         <v>442.3298337384634</v>
@@ -36056,10 +36056,10 @@
         <v>430.2493691287166</v>
       </c>
       <c r="O19" t="n">
-        <v>182.5202468845809</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P19" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738005</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84552160598025</v>
@@ -36214,13 +36214,13 @@
         <v>243.950121402011</v>
       </c>
       <c r="O21" t="n">
-        <v>297.1762604454363</v>
+        <v>214.0767853404719</v>
       </c>
       <c r="P21" t="n">
         <v>163.9065119335332</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.14567311248749</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R21" t="n">
         <v>100.7929153791732</v>
@@ -36281,10 +36281,10 @@
         <v>16.28530536328815</v>
       </c>
       <c r="K22" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608203</v>
       </c>
       <c r="L22" t="n">
-        <v>136.2605980745757</v>
+        <v>344.6244299793374</v>
       </c>
       <c r="M22" t="n">
         <v>442.3298337384634</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>107.9084797608296</v>
+        <v>346.2613454325611</v>
       </c>
       <c r="K23" t="n">
         <v>182.4835053289585</v>
@@ -36378,7 +36378,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q23" t="n">
-        <v>378.9089058048058</v>
+        <v>140.5560401330743</v>
       </c>
       <c r="R23" t="n">
         <v>46.82024895384002</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>18.79474490498372</v>
       </c>
       <c r="J24" t="n">
-        <v>56.57134117968746</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K24" t="n">
         <v>128.6618609232976</v>
       </c>
       <c r="L24" t="n">
-        <v>506.9586407647101</v>
+        <v>191.9518803437597</v>
       </c>
       <c r="M24" t="n">
-        <v>503.2875356188338</v>
+        <v>231.9175093736267</v>
       </c>
       <c r="N24" t="n">
         <v>243.950121402011</v>
@@ -36457,10 +36457,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.14567311248749</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R24" t="n">
-        <v>100.7929153791732</v>
+        <v>12.17439049549151</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>59.03184779608203</v>
       </c>
       <c r="L25" t="n">
-        <v>404.9252486033273</v>
+        <v>319.4444840620609</v>
       </c>
       <c r="M25" t="n">
         <v>442.3298337384634</v>
@@ -36533,10 +36533,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P25" t="n">
-        <v>110.5677130717508</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q25" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598025</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>217.9828938404988</v>
+        <v>107.9084797608296</v>
       </c>
       <c r="K26" t="n">
         <v>182.4835053289585</v>
@@ -36615,7 +36615,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.5560401330743</v>
+        <v>250.6304542127438</v>
       </c>
       <c r="R26" t="n">
         <v>175.0987005459017</v>
@@ -36673,10 +36673,10 @@
         <v>18.79474490498372</v>
       </c>
       <c r="J27" t="n">
-        <v>56.57134117968746</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K27" t="n">
-        <v>286.1730370240933</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L27" t="n">
         <v>191.9518803437597</v>
@@ -36697,7 +36697,7 @@
         <v>499.216538772865</v>
       </c>
       <c r="R27" t="n">
-        <v>100.7929153791732</v>
+        <v>12.17439049549128</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>16.28530536328815</v>
+        <v>81.94324842524409</v>
       </c>
       <c r="K28" t="n">
         <v>59.03184779608203</v>
@@ -36770,10 +36770,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P28" t="n">
-        <v>110.5677130717503</v>
+        <v>60.06512077738005</v>
       </c>
       <c r="Q28" t="n">
-        <v>146.3949763593511</v>
+        <v>131.2396255917655</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>107.9084797608296</v>
+        <v>346.2613454325606</v>
       </c>
       <c r="K29" t="n">
         <v>182.4835053289585</v>
@@ -36852,7 +36852,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q29" t="n">
-        <v>378.9089058048054</v>
+        <v>140.5560401330743</v>
       </c>
       <c r="R29" t="n">
         <v>46.82024895384002</v>
@@ -36910,13 +36910,13 @@
         <v>18.79474490498372</v>
       </c>
       <c r="J30" t="n">
-        <v>56.57134117968746</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K30" t="n">
         <v>128.6618609232976</v>
       </c>
       <c r="L30" t="n">
-        <v>506.95864076471</v>
+        <v>191.9518803437597</v>
       </c>
       <c r="M30" t="n">
         <v>231.9175093736267</v>
@@ -36928,13 +36928,13 @@
         <v>214.0767853404719</v>
       </c>
       <c r="P30" t="n">
-        <v>505.3400927454546</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.14567311248749</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R30" t="n">
-        <v>11.93461590747497</v>
+        <v>12.17439049549128</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16.28530536328815</v>
+        <v>81.94324842524409</v>
       </c>
       <c r="K31" t="n">
-        <v>59.03184779608203</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L31" t="n">
         <v>404.9252486033273</v>
@@ -37004,13 +37004,13 @@
         <v>430.2493691287166</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5670915932262</v>
+        <v>79.30975884702366</v>
       </c>
       <c r="P31" t="n">
-        <v>238.1171678251213</v>
+        <v>154.8032708512352</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.84552160598025</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>288.0970498876282</v>
       </c>
       <c r="O32" t="n">
-        <v>266.5865405916854</v>
+        <v>504.9394062634166</v>
       </c>
       <c r="P32" t="n">
-        <v>451.764264563201</v>
+        <v>213.41139889147</v>
       </c>
       <c r="Q32" t="n">
         <v>140.5560401330743</v>
@@ -37147,10 +37147,10 @@
         <v>18.79474490498372</v>
       </c>
       <c r="J33" t="n">
-        <v>56.57134117968746</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K33" t="n">
-        <v>506.95864076471</v>
+        <v>128.6618609232976</v>
       </c>
       <c r="L33" t="n">
         <v>191.9518803437597</v>
@@ -37165,13 +37165,13 @@
         <v>214.0767853404719</v>
       </c>
       <c r="P33" t="n">
-        <v>442.0500733249925</v>
+        <v>163.9065119335332</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.14567311248749</v>
+        <v>499.216538772865</v>
       </c>
       <c r="R33" t="n">
-        <v>11.93461590747497</v>
+        <v>12.17439049549128</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P34" t="n">
-        <v>238.1171678251213</v>
+        <v>238.1171678251215</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84552160598025</v>
@@ -37326,7 +37326,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330743</v>
       </c>
       <c r="R35" t="n">
         <v>46.82024895384002</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.79474490498372</v>
       </c>
       <c r="J36" t="n">
-        <v>135.8368534361947</v>
+        <v>302.7010421641655</v>
       </c>
       <c r="K36" t="n">
         <v>128.6618609232976</v>
@@ -37405,10 +37405,10 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q36" t="n">
-        <v>446.7623813221044</v>
+        <v>172.2451482174519</v>
       </c>
       <c r="R36" t="n">
-        <v>11.93461590747497</v>
+        <v>100.7929153791732</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.94324842524409</v>
+        <v>40.37742986778485</v>
       </c>
       <c r="K37" t="n">
-        <v>59.03184779608203</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L37" t="n">
-        <v>278.9664869173815</v>
+        <v>404.9252486033273</v>
       </c>
       <c r="M37" t="n">
-        <v>442.3298337384634</v>
+        <v>93.87897564322557</v>
       </c>
       <c r="N37" t="n">
-        <v>430.2493691287166</v>
+        <v>94.86118584832722</v>
       </c>
       <c r="O37" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P37" t="n">
-        <v>60.06512077738005</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.84552160598025</v>
+        <v>146.3949763593511</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>213.41139889147</v>
       </c>
       <c r="Q38" t="n">
-        <v>140.5560401330742</v>
+        <v>140.5560401330739</v>
       </c>
       <c r="R38" t="n">
         <v>46.82024895384002</v>
@@ -37621,7 +37621,7 @@
         <v>18.79474490498372</v>
       </c>
       <c r="J39" t="n">
-        <v>56.57134117968746</v>
+        <v>117.0421085312108</v>
       </c>
       <c r="K39" t="n">
         <v>128.6618609232976</v>
@@ -37633,7 +37633,7 @@
         <v>231.9175093736267</v>
       </c>
       <c r="N39" t="n">
-        <v>304.4208887535344</v>
+        <v>243.950121402011</v>
       </c>
       <c r="O39" t="n">
         <v>214.0767853404719</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.94324842524409</v>
+        <v>16.28530536328815</v>
       </c>
       <c r="K40" t="n">
         <v>59.03184779608203</v>
@@ -37709,7 +37709,7 @@
         <v>404.9252486033273</v>
       </c>
       <c r="M40" t="n">
-        <v>93.87897564322557</v>
+        <v>382.0290151144731</v>
       </c>
       <c r="N40" t="n">
         <v>430.2493691287166</v>
@@ -37718,10 +37718,10 @@
         <v>397.5670915932262</v>
       </c>
       <c r="P40" t="n">
-        <v>155.0077624333013</v>
+        <v>60.06512077738005</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598025</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>140.5560401330743</v>
       </c>
       <c r="R41" t="n">
-        <v>46.82024895384002</v>
+        <v>46.82024895383951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.79474490498372</v>
       </c>
       <c r="J42" t="n">
         <v>302.7010421641655</v>
       </c>
       <c r="K42" t="n">
-        <v>128.6618609232976</v>
+        <v>300.6196354999598</v>
       </c>
       <c r="L42" t="n">
         <v>191.9518803437597</v>
@@ -37879,7 +37879,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q42" t="n">
-        <v>279.8981925941338</v>
+        <v>89.14567311248749</v>
       </c>
       <c r="R42" t="n">
         <v>11.93461590747497</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.94324842524409</v>
+        <v>40.3774298677844</v>
       </c>
       <c r="K43" t="n">
-        <v>59.03184779608203</v>
+        <v>267.3956797008438</v>
       </c>
       <c r="L43" t="n">
         <v>404.9252486033273</v>
@@ -37949,13 +37949,13 @@
         <v>93.87897564322557</v>
       </c>
       <c r="N43" t="n">
-        <v>430.2493691287166</v>
+        <v>94.86118584832722</v>
       </c>
       <c r="O43" t="n">
         <v>397.5670915932262</v>
       </c>
       <c r="P43" t="n">
-        <v>155.0077624333015</v>
+        <v>323.5979323663882</v>
       </c>
       <c r="Q43" t="n">
         <v>146.3949763593511</v>
@@ -38040,7 +38040,7 @@
         <v>140.5560401330743</v>
       </c>
       <c r="R44" t="n">
-        <v>46.82024895383836</v>
+        <v>46.82024895384002</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>302.7010421641655</v>
+        <v>135.8368534361945</v>
       </c>
       <c r="K45" t="n">
         <v>128.6618609232976</v>
@@ -38116,7 +38116,7 @@
         <v>163.9065119335332</v>
       </c>
       <c r="Q45" t="n">
-        <v>279.8981925941324</v>
+        <v>446.7623813221044</v>
       </c>
       <c r="R45" t="n">
         <v>11.93461590747497</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.94324842524409</v>
+        <v>16.28530536328815</v>
       </c>
       <c r="K46" t="n">
-        <v>267.3956797008438</v>
+        <v>59.03184779608203</v>
       </c>
       <c r="L46" t="n">
-        <v>404.9252486033273</v>
+        <v>344.624429979337</v>
       </c>
       <c r="M46" t="n">
-        <v>370.5704898319674</v>
+        <v>442.3298337384634</v>
       </c>
       <c r="N46" t="n">
-        <v>94.86118584832722</v>
+        <v>430.2493691287166</v>
       </c>
       <c r="O46" t="n">
-        <v>79.30975884702366</v>
+        <v>397.5670915932262</v>
       </c>
       <c r="P46" t="n">
-        <v>323.5979323663882</v>
+        <v>60.06512077738005</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.3949763593511</v>
+        <v>18.84552160598025</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
